--- a/data/hotels_by_city/Dallas/Dallas_shard_92.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_92.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="571">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Shirley E</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -171,6 +174,9 @@
     <t>We stayed here twice on our way to Houston Texas.  Very nice staff very clean comfortable beds good breakfast.  Easy access from the interstate quiet comfortable.  The price is reasonable for the quality will definitely stay again,</t>
   </si>
   <si>
+    <t>1gardengirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r558438195-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -192,6 +198,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>jsulli5008</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r551988404-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -210,6 +219,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>asmith832</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r500432491-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Bsgiarc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r487986925-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -249,6 +264,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>David M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r487451045-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -264,6 +282,9 @@
     <t>We stopped here on a trip down to Galveston. We only stayed one night, but this was an excellent hotel overall. The staff was very nice upon entering and we got our room extremely fast. We needed more towels, since we had children and those were brought to us within minutes. Good location with plenty of things close by. Overall a great overnight stay.</t>
   </si>
   <si>
+    <t>ROGER C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r474342974-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -285,6 +306,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Bhoff4273</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r472096029-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -303,6 +327,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Jackie_in_MO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r469725338-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -327,6 +354,9 @@
     <t>We were originally booked for two nights but cut our visit short because we were too early to enjoy the bluebonnets in their full glory.  The staff was very gracious and helpful - and the bed was fabulous.  The only draw back was when we went down to breakfast at 8 AM, they were out of breakfast meats so we skipped the free breakfast and went to iHOP - which was very close by.More</t>
   </si>
   <si>
+    <t>melanieann2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r463259759-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -348,6 +378,9 @@
     <t>I am a complete fan of Comfort Inn &amp; Suites.  They have the best breakfast out of the other chain hotels in their category.  The rooms are up to date, clean, comfy and spacious.  The staff, especially at the Ennis, TX Comfort Suites, is exceptional!  I live near Ennis but was visiting my youngest daughter in Spring, TX.  I needed to leave my car locally and ride with my oldest daughter to Spring (where we also stayed in a Comfort Suites).  This staff allowed me to park my car overnight, no charge!!!  These folks are truly gracious.  That says a lot about the Management and Staff that they would watch my car overnight while I traveled to another Comfort Suites.  These people are the best!!!  I would definitely recommend this hotel!More</t>
   </si>
   <si>
+    <t>Dianne R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r433323888-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -369,6 +402,9 @@
     <t>The hotel staff was friendly and helpful, and check-in was easy. Our room's bed and pillows were wonderful, and the air conditioning was great!  We were in Waxahachie for the day but decided to stay in Ennis, so this location was fine. I would definitely recommend this hotel!More</t>
   </si>
   <si>
+    <t>Patricia H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r428984234-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -390,6 +426,9 @@
     <t>Passing through on our way to Galveston.  The hotel was nice.  The staff was really friendly.  The room was very spacious.  Breakfast had both continental with warm dishes.  It would have been better if the food was hot.  I enjoy having 3 bath towels.  I was pleasantly surprised when they were available and I did not have to ask for an extra.We would recommend staying here.More</t>
   </si>
   <si>
+    <t>Alise V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r406257534-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -411,6 +450,9 @@
     <t>We stayed here for one night while passing through town.  The hotel appeared to be fairly new.  It was very clean, and the rooms were nicely appointed and spacious enough for our family of 5 with young children.  The beds were very comfortable.  Even the sleeper sofa was comfortable enough for an adult (although maybe not two adults). The front desk staff were very polite and helpful.  We also got a great price for the room.More</t>
   </si>
   <si>
+    <t>Susan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r398494090-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -429,6 +471,9 @@
     <t>Very nice facility with friendly front desk employees. Room was very clean &amp; comfortable. Close to restaurants, some within walking distance. Also close to gas station for filling up next morning before continuing on trip. Easy off Interstate; easy back on.More</t>
   </si>
   <si>
+    <t>Love_of_teaching</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r387046113-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -456,6 +501,9 @@
     <t>The staff at the front desk when I checked in were helpful and nice.  The room was clean and comfortable.  The bathroom door did not stay closed, the shower needed some TLC with new chalking. The faucet in the shower I could hardly turn on, and then I could not get it turned off. The air conditioner made noises all night like someone was dumping rocks over it. Very annoying while trying to sleep. I mentioned this when we checked out and they said they would look into it.  Little disappointed that no apology was given. The staff was not as accommodating when checking out.More</t>
   </si>
   <si>
+    <t>DebbyK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r377720897-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -474,6 +522,9 @@
     <t>Stayed for the National Polka Festival.  Stayed here last year and the year before, as well.  Nice accommodations.  Very clean room and good Breakfast.  Very convenient for all the venues.  Will stay again next year.  Thank you very much, Ennis Comfort Suites!More</t>
   </si>
   <si>
+    <t>Jeanie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r375983042-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -495,6 +546,9 @@
     <t>We stayed two nights while attending the Mollie B Polka Party Taping in Ennis.  The room was nice with a sofa and chair, desk and chair, fridge, microwave, coffeemaker, and sink.  Bathroom was clean, but there was only one bar of soap.  The first morning  both the waffle maker and microwave were not working.  There was no juice or bagels.  Things were better the second morning as the waffle maker had been repaired.  Our main displeasure was that housekeeping did not change out the used towels for clean ones.  Not making up the beds was not that big a deal, but we did expect clean towels.More</t>
   </si>
   <si>
+    <t>Pam R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r369923280-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -519,6 +573,9 @@
     <t>Stayed here because of location close to family. I realize I get a good rate due to being an employee but I expect to be treated the same as other guests.  Room was excellent and the clerks that checked me in were great.  BUT....went to breakfast in the a.m. with more than an hour to go and there was no orange juice or biscuits.  when the person taking care of the area was asked for them she says "I'm out.  Use bread and deal with it."  Really???? And she was handling the food without gloves!! Disgusting!!!  When I went to desk to check out and asked for my receipt the clerk (who was not appropriately dressed for front desk!) told me it had been put under my door during the night.  Do you really think I would ask for a receipt if I already had it? She told me she guessed she could print it off again. If I treated a guest request like she did my boss would be writing me up!!!More</t>
   </si>
   <si>
+    <t>Vanessa P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r358536065-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -540,6 +597,9 @@
     <t>The Hotel is very clean.  Loved the setup of the room we were in!!  Extremely comfortable beds! !!!    The front desk staff was nice.  There were some problems though.  For all 4 days we were there I was never able to sign onto the Internet.  The breakfast is left unattended in the morning so if u need something or something runs out you have to go to front desk and let them know. And whomever cooks their gravy needs a lesson or two. Burnt tasting every morning!  But I was really pleased to know that they serve coffee and juice and keep boiled eggs out all day long. Overall I enjoyed our stay. More</t>
   </si>
   <si>
+    <t>moniluvsdean</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r358015394-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -558,6 +618,9 @@
     <t>We were in town for a family event and stayed 2 nights. Several family members also stayed and I asked the front desk to put us into rooms close to each other on the same floor and the clerk took care of that with no problem. I didn't need cleaning services but housekeeping was so helpful in switching out towels and providing more toiletries!More</t>
   </si>
   <si>
+    <t>Urmama777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r356283550-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -582,6 +645,9 @@
     <t>We were only here one night on our way to Houston. The room was very clean and comfortable. The breakfast was great. It was the usual hotel breakfast but did offer biscuits and gravy along with sausage and eggs. We did not get to use the pool as it was raining and too cold. I would stay here again. More</t>
   </si>
   <si>
+    <t>Cara B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r355417404-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -603,6 +669,9 @@
     <t>After booking our hotel one year earlier, we received a call 3 weeks before our stay it was overbooked. They did give us a room but not what we requested.  When we left for home I was told to call in early November to book for next year. 3 months later I found out that the hotel was completely booked to an nhra race team. This meant the ENTIRE KAHLITA team took the entire hotel so regular consumers were not able to stay at a hotel. Due to this delay in reserving our rooms, we have had to scramble and find a hotel further away from our destination. The person assisting me was helpful and apologetic but the blame is on the hotel manager for wanting only prestige to stay at his hotel not grateful CHOICE HOTELS AND COMFORT INN in ENNIS Texas!!!! For anyone who is choosing to stay here at this hotel for events DO NOT PLAN on staying here. They book only to the most prestigious people and do not keep in mind the everyday persons. Thanks to this I did actually book 2 hotel rooms in Corsicana, comfort suites. But due to the way that last years reservations were mishandled as well as being off putted by the hotel in Ennis, we have chosen to stay at a different name hotel in a town much closer to the Texas Motorplex.  In fact this hotel actually has...After booking our hotel one year earlier, we received a call 3 weeks before our stay it was overbooked. They did give us a room but not what we requested.  When we left for home I was told to call in early November to book for next year. 3 months later I found out that the hotel was completely booked to an nhra race team. This meant the ENTIRE KAHLITA team took the entire hotel so regular consumers were not able to stay at a hotel. Due to this delay in reserving our rooms, we have had to scramble and find a hotel further away from our destination. The person assisting me was helpful and apologetic but the blame is on the hotel manager for wanting only prestige to stay at his hotel not grateful CHOICE HOTELS AND COMFORT INN in ENNIS Texas!!!! For anyone who is choosing to stay here at this hotel for events DO NOT PLAN on staying here. They book only to the most prestigious people and do not keep in mind the everyday persons. Thanks to this I did actually book 2 hotel rooms in Corsicana, comfort suites. But due to the way that last years reservations were mishandled as well as being off putted by the hotel in Ennis, we have chosen to stay at a different name hotel in a town much closer to the Texas Motorplex.  In fact this hotel actually has a contract with Texas Motor Plex and goes out of their way to keep rooms open for the other people not just the professional racers.  My stay was October 2015 and we traveled with 6 other people who are now very discouraged with CHOCIE hotels in general.More</t>
   </si>
   <si>
+    <t>Spencer1952</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r347703815-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -624,6 +693,9 @@
     <t>Spent two night in this hotel. Very nice. Everyone was welcoming. The staff at the desk seems to know little about the area and just pointed me to the rack of brochures, Staff should be educated about the area they work in.  Not much to do in Ennis. Thought I might take in a movie…no movie theater only a drive in.  No shopping. Really nothing to do. Was told I could drive into Dallas……My room was large with a nice clean bathroom. It wasn't any more or less noisy than most. Wifi was great. Didn't have the breakfast.The only thing that I suggested was that the sheer drape in the window be taken down and washed as it was filthy.More</t>
   </si>
   <si>
+    <t>I600XTjamesr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r342239773-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -648,6 +720,9 @@
     <t>The comfort suites in Ennis, TX is a new location (new building) so it is in great shape but an experienced dedicated captain should be put in command to clean it up and establish a more professional and friendly atmosphere. The person working the late night shift needs training on how to welcome guests and the importance of being visible at the front desk instead of parked in the office hidden. No a very friendly person. The lobby had dried mud on the floors which had been tracked in earlier that day. Don't wait for the morning cleaning person to mop it up. The elevator was filthy. The beds and room were clean and comfortable. The breakfast (eggs and sausage) were cold and no warming device under the serving station. The breakfast had only been out for 45 minutes and still had two hours to go until closing time. The breads (bagels, muffins, etc) were stale. I would expect this from a $50.00 a night and below hotel but for $70.00 and higher, "ALL HANDS ON DECK AND GET BUSY WORKING". CLEAN IT UP.I chose to stay the next night at Days Inn down the street and believe me when I say, it was great and they know how to do it right. That is my next review after this one. I give comfort suites a C - and I give Days Inn an A+++.More</t>
   </si>
   <si>
+    <t>Rodney R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r337255408-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -667,6 +742,9 @@
   </si>
   <si>
     <t>The customer service is great.  I accidently booked a room at the Ennis, Tx location that was non-cancellable..  As soon as I booked the room I realized the location was completely wrong.  I immediately called the Ennis Texas location and was told that only the manager could cancel the reservation and suggested I call and talk with him in the morning.  I called the next morning and talked to the manager Zan Patel.He was able to cancel the reservation so I could then book at the correct location.  I have been staying at Comfort Suites for both business and vacation for over 15 years and will continue to do so not only for the quality of the rooms but also for the excellent customer service.More</t>
+  </si>
+  <si>
+    <t>Anthony G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r300624688-Comfort_Suites-Ennis_Texas.html</t>
@@ -698,6 +776,9 @@
 The breakfast in the morning hit the spot and was very good....Our family had went to Galveston for vacation this summer and on our way back we stopped in Houston to spend some more time that resulted in us extending our stay. Instead of driving back 8 hours while exhausted I found the Comfort Suites available for that night at a very good price for a Queen double bed suite. For this being a suite and the same price as a regular room that we had stayed in earlier this week I was very pleased.The attendant was very helpful for me as we checked in late that evening and ensured we had everything we needed. The room was very clean and very spacious. The kids were happy to see that there was an extra couch/pull out bed and lots of room to stretch out and relax. The kitchenette was very handy and had plenty of room along with coffee and creamers for our morning ahead.The beds were very comfortable and the air conditioning kept the room plenty cold that night as we slept. The bathroom was very clean and well maintained. The carpet in the room was very clean and there were no hints of mold/mildew or bugs.The attendee even ensured we had enough blankets for our kids when we checked in and that was a huge plus to make sure everyone slept warm and comfortably.The breakfast in the morning hit the spot and was very good. There was plenty of options to choose from: Coffee, oatmeal, waffles, pastries, toast, yogurt, eggs, sausage, biscuits and gravy, juice, fruit and cereal. My family was very happy with the selection and it gave us exactly what we needed. Our stay was very restful even for the few hours we slept, but we were treated very well and the accommodations were A+More</t>
   </si>
   <si>
+    <t>Jay38652</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r288308950-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -719,6 +800,9 @@
     <t>We stayed at this location for a business trip and upon arrival the property looked well groomed and very clean. The lobby was very clean and appealing. The front desk agent, Darla, was fantastic!!! She was very nice and professional! Excellent customer service and a great breakfast. The room was immaculate, roomy, and very comfortable! I recommend this property to anyone traveling to this area! And I will definitely return here in the future!More</t>
   </si>
   <si>
+    <t>elisabeth b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r278167178-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -767,6 +851,9 @@
     <t>This is our first experience with any Comfort Suites.  We were very impressed.  This is the nicest Hotel we have stayed in for a very long time.  Breakfast was very good.  Much better than most included breakfasts.  Our room was large and well appointed.  Today when we left we were given a meal on the go bag, which came in very hand with the bad weather we were facing.More</t>
   </si>
   <si>
+    <t>Heather B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r268457133-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -791,6 +878,9 @@
     <t>We enjoyed our stay the room was a great size the bathroom was impressive!! The bed was comfy and breakfast had a good variety.We will be sure to use CS for any future stays in Ennis. Great location right off the highway.More</t>
   </si>
   <si>
+    <t>Allysia2beInspired</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r211655393-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -815,6 +905,9 @@
     <t>We enjoyed how clean the room was and the mini fridge &amp; microwave was nice. Very close to town activities. Good hotel for the $$ Our king size bed was comfortable but my brother-in law's pull out couch was extremely uncomfortable (must be careful when booking online)More</t>
   </si>
   <si>
+    <t>medicn8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r211013693-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -842,6 +935,9 @@
     <t>this hotel was very clean and comfy. the pool was dirty so we did not swim but that wasnt a problem. be sure to try and get a room on the east end of hotel as the highway noise is rather loud on the west side closest to highway. the breakfast was simple nothing fancy but the stay was worth the money for a good clean roomMore</t>
   </si>
   <si>
+    <t>Retired-fun-travelin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r210011868-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -866,6 +962,9 @@
     <t>No worry of traffic noise with its location, but not too far off highway. Found it with no problem using the address suggested for people using a GPS. No one was in sight at the front desk when we arrived but there was a bell to announce our arrival. The young lady was very helpful. We were very impressed to see the large room. So nice to have the sofa, computer desk and living room type chair in the sitting area. Beds were very comfortable. Very nice free breakfast buffet. All in all, we are glad we stayed here and would return.More</t>
   </si>
   <si>
+    <t>Disneyforaday</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r200712544-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -893,6 +992,9 @@
     <t>The hotel has larger rooms, basic breakfast, definitely a good value for $50. Good sized parking lot for oversized vehicles, a bit of a walk to restaurants but very nice nights resting spot right off highwayMore</t>
   </si>
   <si>
+    <t>Linda H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r199248745-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -920,6 +1022,9 @@
     <t>Nice, large room  very quiet, comfortable bed and clean. 4 out of 5 stars because deadbolt on door wouldn't work and one of the lights had burned out bulbs. Manager offered another room but we didn't want to switch after having unpacked. All in all a good value for the money though!More</t>
   </si>
   <si>
+    <t>markchristy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r198198986-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -962,6 +1067,9 @@
     <t>Me and my daughter stayed here a couple of nights during the week. The room appeared clean although you could tell housekeeping cut corners. They didn't vacuum. The desk chair had white stuff on it. Which would've came clean if they did it, but I did it myself. The bathroon looked clean until I shut the door. There was a used towel hanging . I took a shower and the drain was clogged, yuck! We were close to the elevator so we heard that all night. Men hanging out in the hallway greeting, laughing with each other. Someone didn't know how to control there kids so they ran up and down the hall, another crying.I couldn't complain to the front desk because she had a group of visitors being loud as well. We laid down around 9 and all this was going on. Maybe we are early birds but have some manners and be courteous to others. People come to rest.More</t>
   </si>
   <si>
+    <t>Rob A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r182220482-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1010,6 +1118,9 @@
     <t>This is a good place to stay while we visit in the area with our family.  We were here this past weekend for my sister's wedding so many of us stayed here, it was convenient and having a suite makes it great for everyone coming in and out to visit and party!  The free breakfast was greatly appreciated as the morning after we were all needing sustenance!!More</t>
   </si>
   <si>
+    <t>Dan J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r179388014-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1028,6 +1139,9 @@
     <t>I was concerned about the rating at 2 1/2 stars but it was vary clean and I had no complaints. The Smoking area in front has a problem with people thoughing the cig. butts on the drive way as they do have an ash tray in the area for them.More</t>
   </si>
   <si>
+    <t>Trina H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r170166399-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1043,6 +1157,9 @@
     <t>On our drive from OKC to Houston we decided to stop and get some rest. This was a great choice. Very clean and spacious. The free breakfast was a plus. The outdoor pool looked nice but unfortunately we didn't have time to enjoy it. I would definitely stay here again.</t>
   </si>
   <si>
+    <t>brownbear253</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r160005858-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1061,6 +1178,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Rhonda K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r157443510-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1079,6 +1199,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Jessica D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r155336252-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1100,6 +1223,9 @@
     <t>We arrived at 12:30am after being on the road for 8 hours. Upon getting settled in our room I found a half drank bottle of water on the floor at the foot of the bed and 2 pieces of trash (1 being a pill wrapper) Being too tired to mess with it, I addressed it with Summer at the front desk in the morning. An hr later at ck out, Summer said I should get me rm free but she can't do it, I should call and talk to the GM and if not talk to the owner, Ricky. When I phoned the hotel to speak with them I got Ricky, without knowing, and she was SO RUDE! She questioned why I should get a discount when I didn't address my findings when I found them (umm cause it was 1am and we were tired!) She offered me a 10% ($8) She was very rude and would not let me talk. Ricky had ZERO compassion for her guests and then stated she has a great staff and housekeeping--- not if they left trash in a room and the FD person I dealt with was FIRED (Ricky told me that!) I am looking for her corporate # to turn her in! Oh and she hung up on me!!! NEVER AGAIN!!!More</t>
   </si>
   <si>
+    <t>PACRatDeb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r155331201-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1115,6 +1241,9 @@
     <t>We encountered the same clerk as the review on March 14. When we checked in, he didn't do much talking. Looked at me like I was disturbing him and only said, "Sign here," then handed me my keys. We went to supper and when we came back we stopped at the front desk for sheets for the hideaway bed. Nobody in sight. Sign on desk telling us the clerk has stepped away and instructions to ring the bell if you need service. No bell or clerk to be found. We started to the elevator and found him around the corner and asked for the sheets. We thought maybe he was having a bad day, so we gave him the benefit of doubt and shrugged it off. But the next night after a long day away from the hotel, we went to our room and our key cards would not work. We saw our "friendly" (NOT!)  clerk when we came in, but when we came back to the desk to complain about not being able to enter our room, where of course all our belongings were located, no clerk to be found. After several minutes of searching for our lost clerk, looking for the missing bell, &amp; making a plan of action of where to report this problem and get our belongings &amp; possibly leave, he shows up being followed by an older gentleman who mentioned that the clerk had helped...We encountered the same clerk as the review on March 14. When we checked in, he didn't do much talking. Looked at me like I was disturbing him and only said, "Sign here," then handed me my keys. We went to supper and when we came back we stopped at the front desk for sheets for the hideaway bed. Nobody in sight. Sign on desk telling us the clerk has stepped away and instructions to ring the bell if you need service. No bell or clerk to be found. We started to the elevator and found him around the corner and asked for the sheets. We thought maybe he was having a bad day, so we gave him the benefit of doubt and shrugged it off. But the next night after a long day away from the hotel, we went to our room and our key cards would not work. We saw our "friendly" (NOT!)  clerk when we came in, but when we came back to the desk to complain about not being able to enter our room, where of course all our belongings were located, no clerk to be found. After several minutes of searching for our lost clerk, looking for the missing bell, &amp; making a plan of action of where to report this problem and get our belongings &amp; possibly leave, he shows up being followed by an older gentleman who mentioned that the clerk had helped him with his car. Ok, maybe he actually showed customer service to someone. He apologized to us and gave us new key cards. I asked him about the bell and he actually smiled and mumbled, "it was stolen". I think conveniently it has been stolen. My suggestion.........buy a new bell or change your sign or stay at your desk. The hotel room was clean and comfy. The breakfast was ok. And the morning clerk was very friendly and was a better representative of customer service - aware of her surroundings, courteous, and ever present. But I think the night clerk needs some correction, customer service training and a more professional look.  No problems with his obvious tatoos, but his clothing was too casual for a business managenent representative. He was dressed like he was part of the "hood", waiting for some action. If traveling this way again, I would consider staying again, hoping another clerk would be working. The hotel itself was sufficient.More</t>
   </si>
   <si>
+    <t>CindyM0044</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r154571875-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1133,6 +1262,9 @@
     <t>Stayed at this hotel on March 9. 2013. The hotel was very nice and clean, sets back off the highway and is a litle hard to get to.  Only problem was the front desk clerk.  I don't know his name because he didn't wear a name badge but he's the one with letters tattooed across the top of both hands.  We walked in and he didn't greet us in fact he just looked at me till I gave him my name and then he got our keys and laid a paper in front of me and said sign here and initial there and that's all he said.  We asked how to get on the internet and he said it's free and headed to the back.  Later I went downstairs to see if they had any tea bags and waited at the counter but he was no were in sight.  There was a party of 20-30 people in the breakfast room so maybe he was in there.  Next day we checked out with the same guy and I at least got a thank you mam when I handed in my keys.  Can't say he was rude just indifferent.More</t>
   </si>
   <si>
+    <t>dcarson4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r149360744-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1151,6 +1283,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>kdbingham</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r146654024-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1169,6 +1304,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>Craig J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r141822599-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1187,6 +1325,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>Staceyleesoldan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r137160015-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1205,6 +1346,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Wayne T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r129862330-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1223,6 +1367,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>YourNextGuest</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r125145138-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1241,6 +1388,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>Always67Amazed</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r114435040-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1268,6 +1418,9 @@
     <t>Stopped here on the way back home.  Bed was very comfortable.  Room very spacious and clean.  Couldn't have asked for a nicer room and great priceMore</t>
   </si>
   <si>
+    <t>jackiemc08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r88966657-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1286,6 +1439,9 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>travelgirl51560</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r88446565-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1304,6 +1460,9 @@
     <t>i stayed here 1 night. there is no service here. i asked for more pillows &amp; they said they don't have any. on the bed was 4 pillows about half the size of a regular pillow. ..they were square??? the breakfast here is just cereal - some old pastries - 3 day old biscuits (literally) you can make your own waffles - or they have these premade overcooked eggs that they've folded over a piece of velveeta. the front desk people didn't even speak to you when you walked in or out. it's just a budget hotel. the rooms are budget rooms - slightly larger than a regular room w/ that super hard furniture in the sitting area. i felt like instead of $79/night it should have been $50. It wasn't worth the price &amp; I'm not sure why people are mentioning things like how wonderful the breakfast is or how a bride could get ready here? it seemed safe &amp; it had a bed that felt like a cheap hard bed. i'd stay here again - i wouldn't eat here though &amp; i wouldn't stay longer than the 1 night i had to.More</t>
   </si>
   <si>
+    <t>ranger058</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r85266598-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1322,6 +1481,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>susang71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r81833913-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1340,6 +1502,9 @@
     <t>Came from Houston going to the UT - OU game. Reserved a room here because it is VERY convenient access on and off I-45 and a quick trip to the fair grounds. First time to stay here. We will be back! Rooms were clean. Full free breakfast was tasty. (lots of choices -biscuits, bacon, cheese omelets, hazelnut creamer, splenda, great coffee.) The staff was polite. Best of all - across the highway is a Chili's and a 24 hour  "flagship" Whataburger with an automatic sliding glass door entrance, great decor, "Buckeesque" restroom, jukebox, and flat screen TV. (It was the only Whataburger we saw on the trip once we got past Hunstville.)More</t>
   </si>
   <si>
+    <t>TravelKingandQueen90</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r77406245-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1361,6 +1526,9 @@
     <t>Great hotel with friendly staff, clean and large rooms, excellent breakfast choices, and speedy check in and out. Decided to book this hotel on a whim and was pleasantly surprised. Has more than adequate mirrors in the room (I counted about 5) that makes a great location for a bride getting ready for her special day. Plenty of room for getting dressed and mirrors are nice sized and spread throughout the room. Will visit again for another quick getaway. Near many eateries and a Wal-Mart just down the street. Enjoyed a delicious meal at Marsala's which is a great Italian food that is right off the downtown square area. Super easy access on and off of I-45.More</t>
   </si>
   <si>
+    <t>TravelsAlot1955</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r60214146-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1379,6 +1547,9 @@
     <t>March 2010</t>
   </si>
   <si>
+    <t>mamaofthreeTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r59498706-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1394,6 +1565,9 @@
     <t>We stayed the weekend for a family reunion. We had about 10 rooms. Where the facility was very nice the attention to detail lacked. My biggest concern was when I called down and asked to be connected to another guest room the front desk stated "Let me give you that room number and you can just dial it directly" YIKES!! I have been in the industry for 26 years and this is one of the worst things a desk associate can do. Just a few things in our room that needed attention. Overall it was a very nice weekend and I would recommed this hotel.</t>
   </si>
   <si>
+    <t>JoshuaBusby</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r52340913-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1412,6 +1586,9 @@
     <t>June 2008</t>
   </si>
   <si>
+    <t>shanmccown</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r43198039-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1430,6 +1607,9 @@
     <t>We initially enjoyed our stay.  The rooms were clean and the staff was very polite.  However, a week after returning home I found a charge on our credit card from Comfort Suites for the amount of $150.00 for damages.  They had charged us without even notifying us and it was not on our bill when we checked out.  I called the hotel to find out what the extra fee was for.  The receptionist looked up our account and told me that it was for a stain on the duvet.  I asked her what kind of stain, and how large it was because we did not recall spilling anything on the bed.  Honestly, we were hardly ever in the room the entire stay.  Anyway, the receptionist said that the paperwork didn't specify but she would find out and call me back.  She never called back.  My husband called a couple of days later and got the same response.  The receptionist said she would speak with a manager and get back with us.  Again, they never returned our calls.  We put a hold payment on that transaction on our credit card so the credit card company would investigate the charge.  A few weeks later we recieved a letter from our credit card stating that they could not do anything about the charge since it was done "post audit" , whatever that means, and suggested that we contact the hotel again to try...We initially enjoyed our stay.  The rooms were clean and the staff was very polite.  However, a week after returning home I found a charge on our credit card from Comfort Suites for the amount of $150.00 for damages.  They had charged us without even notifying us and it was not on our bill when we checked out.  I called the hotel to find out what the extra fee was for.  The receptionist looked up our account and told me that it was for a stain on the duvet.  I asked her what kind of stain, and how large it was because we did not recall spilling anything on the bed.  Honestly, we were hardly ever in the room the entire stay.  Anyway, the receptionist said that the paperwork didn't specify but she would find out and call me back.  She never called back.  My husband called a couple of days later and got the same response.  The receptionist said she would speak with a manager and get back with us.  Again, they never returned our calls.  We put a hold payment on that transaction on our credit card so the credit card company would investigate the charge.  A few weeks later we recieved a letter from our credit card stating that they could not do anything about the charge since it was done "post audit" , whatever that means, and suggested that we contact the hotel again to try and get a credit.  Needless to say, it has been almost two months since we stayed at the Comfort Suites in Ennis and they have yet to return any of our calls.  Honestly, if they had been professional and had made the effort to speak with us about the charge up front, we would not have been so upset.  Maybe we did accidentally stain the duvet, but to our knowledge nothing was spilled on the bed at any time during our stay.  To this day we do not know the exact details of what they were calling "damages."  So basically our complaint is that they charged our credit card $150 without notifying us and without specifying what the charge was for, and they were never willing to return our calls to discuss the chargeMore</t>
   </si>
   <si>
+    <t>ssfsp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r38170460-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1451,6 +1631,9 @@
     <t>My kids wanted to get away for the day due to the fact  school is starting back up. So we went to the Comfort Suites in Ennis and got the best deal on a room the rate was great and then the outside pool was wonderful.  To top is off at 3:00 they have fresh baked cookies for the guest and then we found out it was the night they grill outside for all the guest at the hotel. The food was great not only did we get a great price on the room but then we had super there and then the next morning they had  an outstanding breakfast. The staff is great so intuned to your needs and willing to make  the stay the best  ever.More</t>
   </si>
   <si>
+    <t>rbmendez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r38168921-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1466,6 +1649,9 @@
     <t>August 2009</t>
   </si>
   <si>
+    <t>rjkcpktrips</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r34589513-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1482,6 +1668,9 @@
   </si>
   <si>
     <t>My wife and I spent a quick night here on our way back from the Houston area to get closer to the Dallas/Fort-Worth airport.  This was a very clean hotel.  Rooms had flat screen tv's which was a nice touch.  Hotel was located right along I-45.  There is a pool there which looked nice, and even grills if you wanted to bbq.  Breakfast was ok.  Eggs, and bacon was complimentary there.  I have to reccomend Bubbas which is about 300 feet down the road.  EXCELLENT resturant!  As I said, we spent roughly 12 hours in this hotel but I would recommend this place to spend a night in between your destination.More</t>
+  </si>
+  <si>
+    <t>jvmarr</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r30856879-Comfort_Suites-Ennis_Texas.html</t>
@@ -1511,6 +1700,9 @@
 The room was otherwise very clean and appeared almost brand new.  The breakfast area was clean well...Our family, 2 adults &amp; 2 small children, stayed at this hotel during a recent road trip to visit friends.  We arrived just before 11 PM after traveling 4 hours.  I approached the front desk, which was manned by 2 people.  One was on the telephone discussing movie options for after work.  The other asked if I was there to check-in.  She had my keys ready just behind the desk with a slip for me to sign.  We went to our room and went to bed.Then at 3:30 AM the phone in the room began ringing...and rang and rang and rang.  My husband finally answered to hear a female voice from the front desk say, "just checking to see if we were actually there."  She had no record of our arrival and decided to call and ask if were were there?!?!  Then we received a bill with the wrong rate and had to print out a copy of our email confirmation to prove to the front desk staff that it was wrong.  Upon "proving" our booked rate the bill was adjusted...with no real apology or explanation as to why someone would call our room at that hour.The only other real negative was a dead bug in the bathroom, but in my opinion a dead bug is better than a living bug.The room was otherwise very clean and appeared almost brand new.  The breakfast area was clean well stocked with a good selection.  The hostess was very friendly.  My only complaint would be the television being up so loud during breakfast.  It just so happened that the morning news show was featuring a story on how to improve fertility and have better sex...not one I want to explain to my pre-schoolers over Texas shaped waffles.More</t>
   </si>
   <si>
+    <t>UTAEngg92</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r17366267-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1527,6 +1719,9 @@
   </si>
   <si>
     <t>My wife and I traveled to Ennis this weekend to enjoy an evening at the Galaxy Drive-In.  Since I did not feel like driving back at two in the morning, we booked a stay at the Comfort Suites.  I'm glad we did.  The staff were very friendly, the rooms were spacious and clean, and the fact that this is a smoke free hotel, made it even better.  My only complaint would be the free breakfast.  I read another review before booking and they mentioned bacon and sausage.  There was none.  What was available was delicious.  On our way back to McKinney, we stopped at Bubba's BBQ which is about a block north from the hotel.  Great food.  They really deserve to be in Texas Monthly's top 50 BBQ joints.More</t>
+  </si>
+  <si>
+    <t>GoodGuest</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r10928022-Comfort_Suites-Ennis_Texas.html</t>
@@ -2052,34 +2247,38 @@
       <c r="A2" t="n">
         <v>56420</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>125311</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
@@ -2098,50 +2297,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>56420</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>125312</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2161,50 +2364,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>56420</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>125313</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
         <v>59</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" t="s">
-        <v>57</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2224,50 +2431,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>56420</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>125314</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2281,50 +2492,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>56420</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>125315</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2342,50 +2557,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>56420</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>2192</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>81</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>76</v>
-      </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2399,50 +2618,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>56420</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>88122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2460,50 +2683,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>56420</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>114787</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2517,41 +2744,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>56420</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>125316</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
@@ -2568,56 +2799,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="X10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>56420</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>125317</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2633,56 +2868,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="X11" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>56420</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>35013</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2700,56 +2939,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="X12" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>56420</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>1541</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2765,56 +3008,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="X13" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>56420</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>125318</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2830,56 +3077,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="X14" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>56420</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>4967</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O15" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2897,56 +3148,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="X15" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>56420</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>125319</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2962,56 +3217,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="X16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>56420</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>125320</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3023,56 +3282,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="X17" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>56420</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>125321</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="O18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3090,56 +3353,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="X18" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>56420</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>42690</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="O19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3157,56 +3424,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="X19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Y19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>56420</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>125322</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="K20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3218,56 +3489,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="X20" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Y20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>56420</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>125323</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="J21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="O21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3285,56 +3560,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="X21" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Y21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>56420</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>125324</v>
+      </c>
+      <c r="C22" t="s">
+        <v>200</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="K22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="O22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3346,56 +3625,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="X22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="Y22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>56420</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>92592</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O23" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3411,56 +3694,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="X23" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="Y23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>56420</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>17407</v>
+      </c>
+      <c r="C24" t="s">
+        <v>217</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="J24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="K24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="O24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -3478,56 +3765,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="X24" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="Y24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>56420</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>125325</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="J25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="O25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3539,56 +3830,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="X25" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="Y25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>56420</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>86045</v>
+      </c>
+      <c r="C26" t="s">
+        <v>234</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="J26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3604,56 +3899,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="X26" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="Y26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>56420</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>70744</v>
+      </c>
+      <c r="C27" t="s">
+        <v>242</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="J27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="K27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="O27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3669,56 +3968,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="X27" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="Y27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>56420</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>125326</v>
+      </c>
+      <c r="C28" t="s">
+        <v>250</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="J28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="K28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="O28" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3736,56 +4039,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="X28" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="Y28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>56420</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>125327</v>
+      </c>
+      <c r="C29" t="s">
+        <v>258</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="J29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="K29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3801,56 +4108,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="X29" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="Y29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>56420</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>125319</v>
+      </c>
+      <c r="C30" t="s">
+        <v>161</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="J30" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="K30" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="O30" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3862,56 +4173,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="X30" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="Y30" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>56420</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>19183</v>
+      </c>
+      <c r="C31" t="s">
+        <v>275</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="J31" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="K31" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3923,47 +4238,51 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="X31" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="Y31" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>56420</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>125328</v>
+      </c>
+      <c r="C32" t="s">
+        <v>284</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="J32" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="K32" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
@@ -3980,56 +4299,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="X32" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="Y32" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>56420</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>125329</v>
+      </c>
+      <c r="C33" t="s">
+        <v>293</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="J33" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="K33" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="O33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4051,56 +4374,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="X33" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="Y33" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>56420</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>125330</v>
+      </c>
+      <c r="C34" t="s">
+        <v>303</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="J34" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="K34" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="O34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4112,56 +4439,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="X34" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="Y34" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>56420</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>125331</v>
+      </c>
+      <c r="C35" t="s">
+        <v>312</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="J35" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="K35" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="L35" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="O35" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4183,56 +4514,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="X35" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="Y35" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>56420</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>1214</v>
+      </c>
+      <c r="C36" t="s">
+        <v>322</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="J36" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="K36" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="O36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4254,47 +4589,51 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="X36" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="Y36" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>56420</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>125332</v>
+      </c>
+      <c r="C37" t="s">
+        <v>332</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="J37" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="K37" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="L37" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
@@ -4311,13 +4650,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="X37" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="Y37" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38">
@@ -4330,37 +4669,37 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="J38" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="K38" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="L38" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="O38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4382,56 +4721,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="X38" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="Y38" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>56420</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>3283</v>
+      </c>
+      <c r="C39" t="s">
+        <v>347</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="J39" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="K39" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="L39" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="O39" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4453,56 +4796,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="X39" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="Y39" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>56420</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>125322</v>
+      </c>
+      <c r="C40" t="s">
+        <v>193</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="J40" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="K40" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="O40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4524,56 +4871,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="X40" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="Y40" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>56420</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>51474</v>
+      </c>
+      <c r="C41" t="s">
+        <v>364</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="J41" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="K41" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="O41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4595,47 +4946,51 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="X41" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="Y41" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>56420</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>125333</v>
+      </c>
+      <c r="C42" t="s">
+        <v>371</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="J42" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="K42" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
@@ -4664,50 +5019,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>56420</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>125334</v>
+      </c>
+      <c r="C43" t="s">
+        <v>377</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="J43" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="K43" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="L43" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="O43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4731,50 +5090,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>56420</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>71380</v>
+      </c>
+      <c r="C44" t="s">
+        <v>384</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="J44" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="K44" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="L44" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="O44" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -4798,50 +5161,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>56420</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>27174</v>
+      </c>
+      <c r="C45" t="s">
+        <v>391</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="J45" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="K45" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="L45" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="O45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -4865,41 +5232,45 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>56420</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>125335</v>
+      </c>
+      <c r="C46" t="s">
+        <v>399</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="J46" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="K46" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="L46" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
@@ -4928,50 +5299,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>56420</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>11641</v>
+      </c>
+      <c r="C47" t="s">
+        <v>405</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="J47" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="K47" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="L47" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="O47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -4995,50 +5370,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>56420</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>125336</v>
+      </c>
+      <c r="C48" t="s">
+        <v>412</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="J48" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="K48" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="L48" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="O48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5062,50 +5441,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>56420</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>125337</v>
+      </c>
+      <c r="C49" t="s">
+        <v>419</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="J49" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="K49" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="L49" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="O49" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5127,50 +5510,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>56420</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>99407</v>
+      </c>
+      <c r="C50" t="s">
+        <v>426</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="J50" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="K50" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="L50" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="O50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5194,50 +5581,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>56420</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>125338</v>
+      </c>
+      <c r="C51" t="s">
+        <v>433</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="J51" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="K51" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="L51" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="O51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -5261,50 +5652,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>56420</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>16241</v>
+      </c>
+      <c r="C52" t="s">
+        <v>440</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="J52" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="K52" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="L52" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="O52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5318,50 +5713,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>56420</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>125339</v>
+      </c>
+      <c r="C53" t="s">
+        <v>447</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="J53" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="K53" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="L53" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="O53" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5385,50 +5784,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>56420</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>125340</v>
+      </c>
+      <c r="C54" t="s">
+        <v>454</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="J54" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="K54" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="L54" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="O54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5446,56 +5849,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="X54" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="Y54" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>56420</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>125341</v>
+      </c>
+      <c r="C55" t="s">
+        <v>464</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="J55" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="K55" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="L55" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="O55" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5519,50 +5926,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>56420</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>125342</v>
+      </c>
+      <c r="C56" t="s">
+        <v>471</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="J56" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="K56" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="L56" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="O56" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -5586,50 +5997,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>56420</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>125343</v>
+      </c>
+      <c r="C57" t="s">
+        <v>478</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="J57" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="K57" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="L57" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="O57" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5653,50 +6068,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>56420</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>125344</v>
+      </c>
+      <c r="C58" t="s">
+        <v>485</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="J58" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="K58" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="L58" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="O58" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5720,50 +6139,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>56420</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>125345</v>
+      </c>
+      <c r="C59" t="s">
+        <v>492</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="J59" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="K59" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="L59" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="O59" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5787,50 +6210,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>56420</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>125346</v>
+      </c>
+      <c r="C60" t="s">
+        <v>500</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="J60" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="K60" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="L60" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="O60" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5854,50 +6281,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>56420</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>125347</v>
+      </c>
+      <c r="C61" t="s">
+        <v>507</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="J61" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="K61" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="L61" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="O61" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -5921,50 +6352,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>56420</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>125348</v>
+      </c>
+      <c r="C62" t="s">
+        <v>513</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="J62" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="K62" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="L62" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="O62" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -5978,41 +6413,45 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>56420</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>125349</v>
+      </c>
+      <c r="C63" t="s">
+        <v>520</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="J63" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="K63" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
       <c r="L63" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
@@ -6041,50 +6480,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>56420</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>125350</v>
+      </c>
+      <c r="C64" t="s">
+        <v>527</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="J64" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="K64" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="L64" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="O64" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6108,50 +6551,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>56420</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>125351</v>
+      </c>
+      <c r="C65" t="s">
+        <v>535</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="J65" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="K65" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="L65" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="O65" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6175,50 +6622,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>56420</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>125352</v>
+      </c>
+      <c r="C66" t="s">
+        <v>541</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>480</v>
+        <v>542</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
       <c r="J66" t="s">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="K66" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="L66" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="O66" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6242,50 +6693,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>56420</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>125353</v>
+      </c>
+      <c r="C67" t="s">
+        <v>548</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>486</v>
+        <v>549</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="J67" t="s">
-        <v>488</v>
+        <v>551</v>
       </c>
       <c r="K67" t="s">
-        <v>489</v>
+        <v>552</v>
       </c>
       <c r="L67" t="s">
-        <v>490</v>
+        <v>553</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="O67" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6309,50 +6764,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>56420</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>125354</v>
+      </c>
+      <c r="C68" t="s">
+        <v>556</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
       <c r="J68" t="s">
-        <v>495</v>
+        <v>559</v>
       </c>
       <c r="K68" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
       <c r="L68" t="s">
-        <v>497</v>
+        <v>561</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="O68" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6376,50 +6835,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>498</v>
+        <v>562</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>56420</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>125355</v>
+      </c>
+      <c r="C69" t="s">
+        <v>563</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>499</v>
+        <v>564</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
       <c r="J69" t="s">
-        <v>501</v>
+        <v>566</v>
       </c>
       <c r="K69" t="s">
-        <v>502</v>
+        <v>567</v>
       </c>
       <c r="L69" t="s">
-        <v>503</v>
+        <v>568</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>504</v>
+        <v>569</v>
       </c>
       <c r="O69" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6443,7 +6906,7 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>505</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_92.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_92.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="553">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,56 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Shirley E</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r597490755-Comfort_Suites-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>55809</t>
+  </si>
+  <si>
+    <t>677439</t>
+  </si>
+  <si>
+    <t>597490755</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Changed our reserved accessible room without notice</t>
+  </si>
+  <si>
+    <t>I made a reservation online several weeks in advance for a wheelchair accessible room at this hotel. I was travelling with my mom who is unable to walk and uses a wheelchair full-time for mobility. After making the reservation, I called the hotel's direct phone number to make sure our reservation was in order and the hotel was aware that a wheelchair accessible room was a necessity. I was told that we would have an accessible room.
+I had also reserved a room at a Comfort Suites in Albuquerque, NM for the night prior to our scheduled stay in Ennis, but when we arrived at that hotel, we were told that our reserved accessible room had been given to someone else. I was concerned about the reservation for Ennis and called the hotel to verify our room was reserved. 
+It turns out that my concern was warranted. When I inquired about my reservation, I was told that a Choice Privileges member with a higher status than mine requested an accessible room so the hotel gave that person my reserved accessible room and switched my reservation to a regular room.
+I couldn't believe they would do that without contacting me. If I had not called them, I wouldn't have known they had changed my room type until I arrived. My mom's wheelchair does not fit into a standard bathroom and I am not strong enough to carry her by myself. 
+The...I made a reservation online several weeks in advance for a wheelchair accessible room at this hotel. I was travelling with my mom who is unable to walk and uses a wheelchair full-time for mobility. After making the reservation, I called the hotel's direct phone number to make sure our reservation was in order and the hotel was aware that a wheelchair accessible room was a necessity. I was told that we would have an accessible room.I had also reserved a room at a Comfort Suites in Albuquerque, NM for the night prior to our scheduled stay in Ennis, but when we arrived at that hotel, we were told that our reserved accessible room had been given to someone else. I was concerned about the reservation for Ennis and called the hotel to verify our room was reserved. It turns out that my concern was warranted. When I inquired about my reservation, I was told that a Choice Privileges member with a higher status than mine requested an accessible room so the hotel gave that person my reserved accessible room and switched my reservation to a regular room.I couldn't believe they would do that without contacting me. If I had not called them, I wouldn't have known they had changed my room type until I arrived. My mom's wheelchair does not fit into a standard bathroom and I am not strong enough to carry her by myself. The man on the phone was unsympathetic about the problem. He said the only thing he would do was cancel our reservation. He wouldn't give us an accessible room like we had reserved. His advice was to stay with the hotel chain more often so I could get a higher status and bump people from their reserved rooms. Even if I were a top-tier member, I would never request to bump someone from their reserved room for my convenience. I booked accessible rooms with Comfort Suites at two different locations for this trip and both times my reserved room was given to someone else, leaving my mom and I with no usable hotel room. I will not book with Choice brand hotels in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>ComfortSuitesEnnis, Front Office Manager at Comfort Suites, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>I made a reservation online several weeks in advance for a wheelchair accessible room at this hotel. I was travelling with my mom who is unable to walk and uses a wheelchair full-time for mobility. After making the reservation, I called the hotel's direct phone number to make sure our reservation was in order and the hotel was aware that a wheelchair accessible room was a necessity. I was told that we would have an accessible room.
+I had also reserved a room at a Comfort Suites in Albuquerque, NM for the night prior to our scheduled stay in Ennis, but when we arrived at that hotel, we were told that our reserved accessible room had been given to someone else. I was concerned about the reservation for Ennis and called the hotel to verify our room was reserved. 
+It turns out that my concern was warranted. When I inquired about my reservation, I was told that a Choice Privileges member with a higher status than mine requested an accessible room so the hotel gave that person my reserved accessible room and switched my reservation to a regular room.
+I couldn't believe they would do that without contacting me. If I had not called them, I wouldn't have known they had changed my room type until I arrived. My mom's wheelchair does not fit into a standard bathroom and I am not strong enough to carry her by myself. 
+The...I made a reservation online several weeks in advance for a wheelchair accessible room at this hotel. I was travelling with my mom who is unable to walk and uses a wheelchair full-time for mobility. After making the reservation, I called the hotel's direct phone number to make sure our reservation was in order and the hotel was aware that a wheelchair accessible room was a necessity. I was told that we would have an accessible room.I had also reserved a room at a Comfort Suites in Albuquerque, NM for the night prior to our scheduled stay in Ennis, but when we arrived at that hotel, we were told that our reserved accessible room had been given to someone else. I was concerned about the reservation for Ennis and called the hotel to verify our room was reserved. It turns out that my concern was warranted. When I inquired about my reservation, I was told that a Choice Privileges member with a higher status than mine requested an accessible room so the hotel gave that person my reserved accessible room and switched my reservation to a regular room.I couldn't believe they would do that without contacting me. If I had not called them, I wouldn't have known they had changed my room type until I arrived. My mom's wheelchair does not fit into a standard bathroom and I am not strong enough to carry her by myself. The man on the phone was unsympathetic about the problem. He said the only thing he would do was cancel our reservation. He wouldn't give us an accessible room like we had reserved. His advice was to stay with the hotel chain more often so I could get a higher status and bump people from their reserved rooms. Even if I were a top-tier member, I would never request to bump someone from their reserved room for my convenience. I booked accessible rooms with Comfort Suites at two different locations for this trip and both times my reserved room was given to someone else, leaving my mom and I with no usable hotel room. I will not book with Choice brand hotels in the future.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r563611222-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
-    <t>55809</t>
-  </si>
-  <si>
-    <t>677439</t>
-  </si>
-  <si>
     <t>563611222</t>
   </si>
   <si>
@@ -174,9 +209,6 @@
     <t>We stayed here twice on our way to Houston Texas.  Very nice staff very clean comfortable beds good breakfast.  Easy access from the interstate quiet comfortable.  The price is reasonable for the quality will definitely stay again,</t>
   </si>
   <si>
-    <t>1gardengirl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r558438195-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -195,12 +227,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>jsulli5008</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r551988404-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -219,9 +245,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t>asmith832</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r500432491-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -243,9 +266,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>Bsgiarc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r487986925-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -264,9 +284,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t>David M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r487451045-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -282,9 +299,6 @@
     <t>We stopped here on a trip down to Galveston. We only stayed one night, but this was an excellent hotel overall. The staff was very nice upon entering and we got our room extremely fast. We needed more towels, since we had children and those were brought to us within minutes. Good location with plenty of things close by. Overall a great overnight stay.</t>
   </si>
   <si>
-    <t>ROGER C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r474342974-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -306,9 +320,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Bhoff4273</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r472096029-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -327,9 +338,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>Jackie_in_MO</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r469725338-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -354,9 +362,6 @@
     <t>We were originally booked for two nights but cut our visit short because we were too early to enjoy the bluebonnets in their full glory.  The staff was very gracious and helpful - and the bed was fabulous.  The only draw back was when we went down to breakfast at 8 AM, they were out of breakfast meats so we skipped the free breakfast and went to iHOP - which was very close by.More</t>
   </si>
   <si>
-    <t>melanieann2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r463259759-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -378,9 +383,6 @@
     <t>I am a complete fan of Comfort Inn &amp; Suites.  They have the best breakfast out of the other chain hotels in their category.  The rooms are up to date, clean, comfy and spacious.  The staff, especially at the Ennis, TX Comfort Suites, is exceptional!  I live near Ennis but was visiting my youngest daughter in Spring, TX.  I needed to leave my car locally and ride with my oldest daughter to Spring (where we also stayed in a Comfort Suites).  This staff allowed me to park my car overnight, no charge!!!  These folks are truly gracious.  That says a lot about the Management and Staff that they would watch my car overnight while I traveled to another Comfort Suites.  These people are the best!!!  I would definitely recommend this hotel!More</t>
   </si>
   <si>
-    <t>Dianne R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r433323888-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -402,9 +404,6 @@
     <t>The hotel staff was friendly and helpful, and check-in was easy. Our room's bed and pillows were wonderful, and the air conditioning was great!  We were in Waxahachie for the day but decided to stay in Ennis, so this location was fine. I would definitely recommend this hotel!More</t>
   </si>
   <si>
-    <t>Patricia H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r428984234-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -426,9 +425,6 @@
     <t>Passing through on our way to Galveston.  The hotel was nice.  The staff was really friendly.  The room was very spacious.  Breakfast had both continental with warm dishes.  It would have been better if the food was hot.  I enjoy having 3 bath towels.  I was pleasantly surprised when they were available and I did not have to ask for an extra.We would recommend staying here.More</t>
   </si>
   <si>
-    <t>Alise V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r406257534-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -450,9 +446,6 @@
     <t>We stayed here for one night while passing through town.  The hotel appeared to be fairly new.  It was very clean, and the rooms were nicely appointed and spacious enough for our family of 5 with young children.  The beds were very comfortable.  Even the sleeper sofa was comfortable enough for an adult (although maybe not two adults). The front desk staff were very polite and helpful.  We also got a great price for the room.More</t>
   </si>
   <si>
-    <t>Susan W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r398494090-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -471,9 +464,6 @@
     <t>Very nice facility with friendly front desk employees. Room was very clean &amp; comfortable. Close to restaurants, some within walking distance. Also close to gas station for filling up next morning before continuing on trip. Easy off Interstate; easy back on.More</t>
   </si>
   <si>
-    <t>Love_of_teaching</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r387046113-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -501,9 +491,6 @@
     <t>The staff at the front desk when I checked in were helpful and nice.  The room was clean and comfortable.  The bathroom door did not stay closed, the shower needed some TLC with new chalking. The faucet in the shower I could hardly turn on, and then I could not get it turned off. The air conditioner made noises all night like someone was dumping rocks over it. Very annoying while trying to sleep. I mentioned this when we checked out and they said they would look into it.  Little disappointed that no apology was given. The staff was not as accommodating when checking out.More</t>
   </si>
   <si>
-    <t>DebbyK</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r377720897-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -522,9 +509,6 @@
     <t>Stayed for the National Polka Festival.  Stayed here last year and the year before, as well.  Nice accommodations.  Very clean room and good Breakfast.  Very convenient for all the venues.  Will stay again next year.  Thank you very much, Ennis Comfort Suites!More</t>
   </si>
   <si>
-    <t>Jeanie B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r375983042-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -546,9 +530,6 @@
     <t>We stayed two nights while attending the Mollie B Polka Party Taping in Ennis.  The room was nice with a sofa and chair, desk and chair, fridge, microwave, coffeemaker, and sink.  Bathroom was clean, but there was only one bar of soap.  The first morning  both the waffle maker and microwave were not working.  There was no juice or bagels.  Things were better the second morning as the waffle maker had been repaired.  Our main displeasure was that housekeeping did not change out the used towels for clean ones.  Not making up the beds was not that big a deal, but we did expect clean towels.More</t>
   </si>
   <si>
-    <t>Pam R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r369923280-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -573,9 +554,6 @@
     <t>Stayed here because of location close to family. I realize I get a good rate due to being an employee but I expect to be treated the same as other guests.  Room was excellent and the clerks that checked me in were great.  BUT....went to breakfast in the a.m. with more than an hour to go and there was no orange juice or biscuits.  when the person taking care of the area was asked for them she says "I'm out.  Use bread and deal with it."  Really???? And she was handling the food without gloves!! Disgusting!!!  When I went to desk to check out and asked for my receipt the clerk (who was not appropriately dressed for front desk!) told me it had been put under my door during the night.  Do you really think I would ask for a receipt if I already had it? She told me she guessed she could print it off again. If I treated a guest request like she did my boss would be writing me up!!!More</t>
   </si>
   <si>
-    <t>Vanessa P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r358536065-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -597,9 +575,6 @@
     <t>The Hotel is very clean.  Loved the setup of the room we were in!!  Extremely comfortable beds! !!!    The front desk staff was nice.  There were some problems though.  For all 4 days we were there I was never able to sign onto the Internet.  The breakfast is left unattended in the morning so if u need something or something runs out you have to go to front desk and let them know. And whomever cooks their gravy needs a lesson or two. Burnt tasting every morning!  But I was really pleased to know that they serve coffee and juice and keep boiled eggs out all day long. Overall I enjoyed our stay. More</t>
   </si>
   <si>
-    <t>moniluvsdean</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r358015394-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -618,9 +593,6 @@
     <t>We were in town for a family event and stayed 2 nights. Several family members also stayed and I asked the front desk to put us into rooms close to each other on the same floor and the clerk took care of that with no problem. I didn't need cleaning services but housekeeping was so helpful in switching out towels and providing more toiletries!More</t>
   </si>
   <si>
-    <t>Urmama777</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r356283550-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -645,9 +617,6 @@
     <t>We were only here one night on our way to Houston. The room was very clean and comfortable. The breakfast was great. It was the usual hotel breakfast but did offer biscuits and gravy along with sausage and eggs. We did not get to use the pool as it was raining and too cold. I would stay here again. More</t>
   </si>
   <si>
-    <t>Cara B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r355417404-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -669,9 +638,6 @@
     <t>After booking our hotel one year earlier, we received a call 3 weeks before our stay it was overbooked. They did give us a room but not what we requested.  When we left for home I was told to call in early November to book for next year. 3 months later I found out that the hotel was completely booked to an nhra race team. This meant the ENTIRE KAHLITA team took the entire hotel so regular consumers were not able to stay at a hotel. Due to this delay in reserving our rooms, we have had to scramble and find a hotel further away from our destination. The person assisting me was helpful and apologetic but the blame is on the hotel manager for wanting only prestige to stay at his hotel not grateful CHOICE HOTELS AND COMFORT INN in ENNIS Texas!!!! For anyone who is choosing to stay here at this hotel for events DO NOT PLAN on staying here. They book only to the most prestigious people and do not keep in mind the everyday persons. Thanks to this I did actually book 2 hotel rooms in Corsicana, comfort suites. But due to the way that last years reservations were mishandled as well as being off putted by the hotel in Ennis, we have chosen to stay at a different name hotel in a town much closer to the Texas Motorplex.  In fact this hotel actually has...After booking our hotel one year earlier, we received a call 3 weeks before our stay it was overbooked. They did give us a room but not what we requested.  When we left for home I was told to call in early November to book for next year. 3 months later I found out that the hotel was completely booked to an nhra race team. This meant the ENTIRE KAHLITA team took the entire hotel so regular consumers were not able to stay at a hotel. Due to this delay in reserving our rooms, we have had to scramble and find a hotel further away from our destination. The person assisting me was helpful and apologetic but the blame is on the hotel manager for wanting only prestige to stay at his hotel not grateful CHOICE HOTELS AND COMFORT INN in ENNIS Texas!!!! For anyone who is choosing to stay here at this hotel for events DO NOT PLAN on staying here. They book only to the most prestigious people and do not keep in mind the everyday persons. Thanks to this I did actually book 2 hotel rooms in Corsicana, comfort suites. But due to the way that last years reservations were mishandled as well as being off putted by the hotel in Ennis, we have chosen to stay at a different name hotel in a town much closer to the Texas Motorplex.  In fact this hotel actually has a contract with Texas Motor Plex and goes out of their way to keep rooms open for the other people not just the professional racers.  My stay was October 2015 and we traveled with 6 other people who are now very discouraged with CHOCIE hotels in general.More</t>
   </si>
   <si>
-    <t>Spencer1952</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r347703815-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -693,9 +659,6 @@
     <t>Spent two night in this hotel. Very nice. Everyone was welcoming. The staff at the desk seems to know little about the area and just pointed me to the rack of brochures, Staff should be educated about the area they work in.  Not much to do in Ennis. Thought I might take in a movie…no movie theater only a drive in.  No shopping. Really nothing to do. Was told I could drive into Dallas……My room was large with a nice clean bathroom. It wasn't any more or less noisy than most. Wifi was great. Didn't have the breakfast.The only thing that I suggested was that the sheer drape in the window be taken down and washed as it was filthy.More</t>
   </si>
   <si>
-    <t>I600XTjamesr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r342239773-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -720,9 +683,6 @@
     <t>The comfort suites in Ennis, TX is a new location (new building) so it is in great shape but an experienced dedicated captain should be put in command to clean it up and establish a more professional and friendly atmosphere. The person working the late night shift needs training on how to welcome guests and the importance of being visible at the front desk instead of parked in the office hidden. No a very friendly person. The lobby had dried mud on the floors which had been tracked in earlier that day. Don't wait for the morning cleaning person to mop it up. The elevator was filthy. The beds and room were clean and comfortable. The breakfast (eggs and sausage) were cold and no warming device under the serving station. The breakfast had only been out for 45 minutes and still had two hours to go until closing time. The breads (bagels, muffins, etc) were stale. I would expect this from a $50.00 a night and below hotel but for $70.00 and higher, "ALL HANDS ON DECK AND GET BUSY WORKING". CLEAN IT UP.I chose to stay the next night at Days Inn down the street and believe me when I say, it was great and they know how to do it right. That is my next review after this one. I give comfort suites a C - and I give Days Inn an A+++.More</t>
   </si>
   <si>
-    <t>Rodney R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r337255408-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -742,9 +702,6 @@
   </si>
   <si>
     <t>The customer service is great.  I accidently booked a room at the Ennis, Tx location that was non-cancellable..  As soon as I booked the room I realized the location was completely wrong.  I immediately called the Ennis Texas location and was told that only the manager could cancel the reservation and suggested I call and talk with him in the morning.  I called the next morning and talked to the manager Zan Patel.He was able to cancel the reservation so I could then book at the correct location.  I have been staying at Comfort Suites for both business and vacation for over 15 years and will continue to do so not only for the quality of the rooms but also for the excellent customer service.More</t>
-  </si>
-  <si>
-    <t>Anthony G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r300624688-Comfort_Suites-Ennis_Texas.html</t>
@@ -776,9 +733,6 @@
 The breakfast in the morning hit the spot and was very good....Our family had went to Galveston for vacation this summer and on our way back we stopped in Houston to spend some more time that resulted in us extending our stay. Instead of driving back 8 hours while exhausted I found the Comfort Suites available for that night at a very good price for a Queen double bed suite. For this being a suite and the same price as a regular room that we had stayed in earlier this week I was very pleased.The attendant was very helpful for me as we checked in late that evening and ensured we had everything we needed. The room was very clean and very spacious. The kids were happy to see that there was an extra couch/pull out bed and lots of room to stretch out and relax. The kitchenette was very handy and had plenty of room along with coffee and creamers for our morning ahead.The beds were very comfortable and the air conditioning kept the room plenty cold that night as we slept. The bathroom was very clean and well maintained. The carpet in the room was very clean and there were no hints of mold/mildew or bugs.The attendee even ensured we had enough blankets for our kids when we checked in and that was a huge plus to make sure everyone slept warm and comfortably.The breakfast in the morning hit the spot and was very good. There was plenty of options to choose from: Coffee, oatmeal, waffles, pastries, toast, yogurt, eggs, sausage, biscuits and gravy, juice, fruit and cereal. My family was very happy with the selection and it gave us exactly what we needed. Our stay was very restful even for the few hours we slept, but we were treated very well and the accommodations were A+More</t>
   </si>
   <si>
-    <t>Jay38652</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r288308950-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -800,9 +754,6 @@
     <t>We stayed at this location for a business trip and upon arrival the property looked well groomed and very clean. The lobby was very clean and appealing. The front desk agent, Darla, was fantastic!!! She was very nice and professional! Excellent customer service and a great breakfast. The room was immaculate, roomy, and very comfortable! I recommend this property to anyone traveling to this area! And I will definitely return here in the future!More</t>
   </si>
   <si>
-    <t>elisabeth b</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r278167178-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -851,9 +802,6 @@
     <t>This is our first experience with any Comfort Suites.  We were very impressed.  This is the nicest Hotel we have stayed in for a very long time.  Breakfast was very good.  Much better than most included breakfasts.  Our room was large and well appointed.  Today when we left we were given a meal on the go bag, which came in very hand with the bad weather we were facing.More</t>
   </si>
   <si>
-    <t>Heather B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r268457133-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -878,7 +826,121 @@
     <t>We enjoyed our stay the room was a great size the bathroom was impressive!! The bed was comfy and breakfast had a good variety.We will be sure to use CS for any future stays in Ennis. Great location right off the highway.More</t>
   </si>
   <si>
-    <t>Allysia2beInspired</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r268184926-Comfort_Suites-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>268184926</t>
+  </si>
+  <si>
+    <t>04/26/2015</t>
+  </si>
+  <si>
+    <t>Excellent Room and Value</t>
+  </si>
+  <si>
+    <t>We stayed here on a trip through Texas and found this hotel.  The property was well cared for, the service was good and the room was spacious, clean, comfortable and good value.  The only negative was I felt there could have been more lighting in a room this large.  Overall it was a great room.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here on a trip through Texas and found this hotel.  The property was well cared for, the service was good and the room was spacious, clean, comfortable and good value.  The only negative was I felt there could have been more lighting in a room this large.  Overall it was a great room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r260529783-Comfort_Suites-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>260529783</t>
+  </si>
+  <si>
+    <t>03/19/2015</t>
+  </si>
+  <si>
+    <t>Pretty big room for a great price.</t>
+  </si>
+  <si>
+    <t>The double room also has a separate pull-out couch/office nook. There weren't extra linens for the pull out couch in our room but I'm sure we could have gotten some if we had called the front desk. I'd definitely recommend staying here. It's worth it to stay just a little outside of Dallas for the quiet and the price. The rooms just smelled new. They were clean and neat. The linens were all fresh looking and smelling.The floor of our room was kind of damp, but the good kind of damp where you could tell it was only because the carpet had just been cleaned.The rooms were very humid (Texas, though) and the cool/dry setting on the air conditioner wouldn't work. That made it kind of difficult for the room to feel cool because it felt perpetually sticky. I was very pleased with our stay. All of the issues were minor and I'm thinking pretty conditional to the day we stayed.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>The double room also has a separate pull-out couch/office nook. There weren't extra linens for the pull out couch in our room but I'm sure we could have gotten some if we had called the front desk. I'd definitely recommend staying here. It's worth it to stay just a little outside of Dallas for the quiet and the price. The rooms just smelled new. They were clean and neat. The linens were all fresh looking and smelling.The floor of our room was kind of damp, but the good kind of damp where you could tell it was only because the carpet had just been cleaned.The rooms were very humid (Texas, though) and the cool/dry setting on the air conditioner wouldn't work. That made it kind of difficult for the room to feel cool because it felt perpetually sticky. I was very pleased with our stay. All of the issues were minor and I'm thinking pretty conditional to the day we stayed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r246376647-Comfort_Suites-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>246376647</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>Fantastic Stay</t>
+  </si>
+  <si>
+    <t>Stayed here in November2014 for a family wedding.  Room was clean, customer service was great/helpful, and had good breakfast.  Various restaurants and shopping centers in the area.Would definitely stay at this place again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>zan p, General Manager at Comfort Suites, responded to this reviewResponded January 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here in November2014 for a family wedding.  Room was clean, customer service was great/helpful, and had good breakfast.  Various restaurants and shopping centers in the area.Would definitely stay at this place again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r242845502-Comfort_Suites-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>242845502</t>
+  </si>
+  <si>
+    <t>12/03/2014</t>
+  </si>
+  <si>
+    <t>Truly living up to expectations!</t>
+  </si>
+  <si>
+    <t>We had a magnificent one-night stay at this marvelous property.  Management is to be complimented for such a fine facility.  If / when we come through this way again, we'll DEFINITELY stay at Comfort Suites, Ennis, TX.MoreShow less</t>
+  </si>
+  <si>
+    <t>zan p, General Manager at Comfort Suites, responded to this reviewResponded December 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2014</t>
+  </si>
+  <si>
+    <t>We had a magnificent one-night stay at this marvelous property.  Management is to be complimented for such a fine facility.  If / when we come through this way again, we'll DEFINITELY stay at Comfort Suites, Ennis, TX.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r220741469-Comfort_Suites-Ennis_Texas.html</t>
+  </si>
+  <si>
+    <t>220741469</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here in Late July 2014 on way to Galveston Island.    Clean, Nice rooms, good value, good breakfast selections.     We will continue to stop here when in the area.    Close to restaurants and shopping.   Easily accessed on &amp; off highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>zan p, General Manager at Comfort Suites, responded to this reviewResponded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here in Late July 2014 on way to Galveston Island.    Clean, Nice rooms, good value, good breakfast selections.     We will continue to stop here when in the area.    Close to restaurants and shopping.   Easily accessed on &amp; off highway.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r211655393-Comfort_Suites-Ennis_Texas.html</t>
@@ -905,9 +967,6 @@
     <t>We enjoyed how clean the room was and the mini fridge &amp; microwave was nice. Very close to town activities. Good hotel for the $$ Our king size bed was comfortable but my brother-in law's pull out couch was extremely uncomfortable (must be careful when booking online)More</t>
   </si>
   <si>
-    <t>medicn8</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r211013693-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -935,9 +994,6 @@
     <t>this hotel was very clean and comfy. the pool was dirty so we did not swim but that wasnt a problem. be sure to try and get a room on the east end of hotel as the highway noise is rather loud on the west side closest to highway. the breakfast was simple nothing fancy but the stay was worth the money for a good clean roomMore</t>
   </si>
   <si>
-    <t>Retired-fun-travelin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r210011868-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -962,9 +1018,6 @@
     <t>No worry of traffic noise with its location, but not too far off highway. Found it with no problem using the address suggested for people using a GPS. No one was in sight at the front desk when we arrived but there was a bell to announce our arrival. The young lady was very helpful. We were very impressed to see the large room. So nice to have the sofa, computer desk and living room type chair in the sitting area. Beds were very comfortable. Very nice free breakfast buffet. All in all, we are glad we stayed here and would return.More</t>
   </si>
   <si>
-    <t>Disneyforaday</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r200712544-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -992,9 +1045,6 @@
     <t>The hotel has larger rooms, basic breakfast, definitely a good value for $50. Good sized parking lot for oversized vehicles, a bit of a walk to restaurants but very nice nights resting spot right off highwayMore</t>
   </si>
   <si>
-    <t>Linda H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r199248745-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1022,9 +1072,6 @@
     <t>Nice, large room  very quiet, comfortable bed and clean. 4 out of 5 stars because deadbolt on door wouldn't work and one of the lights had burned out bulbs. Manager offered another room but we didn't want to switch after having unpacked. All in all a good value for the money though!More</t>
   </si>
   <si>
-    <t>markchristy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r198198986-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1067,9 +1114,6 @@
     <t>Me and my daughter stayed here a couple of nights during the week. The room appeared clean although you could tell housekeeping cut corners. They didn't vacuum. The desk chair had white stuff on it. Which would've came clean if they did it, but I did it myself. The bathroon looked clean until I shut the door. There was a used towel hanging . I took a shower and the drain was clogged, yuck! We were close to the elevator so we heard that all night. Men hanging out in the hallway greeting, laughing with each other. Someone didn't know how to control there kids so they ran up and down the hall, another crying.I couldn't complain to the front desk because she had a group of visitors being loud as well. We laid down around 9 and all this was going on. Maybe we are early birds but have some manners and be courteous to others. People come to rest.More</t>
   </si>
   <si>
-    <t>Rob A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r182220482-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1118,9 +1162,6 @@
     <t>This is a good place to stay while we visit in the area with our family.  We were here this past weekend for my sister's wedding so many of us stayed here, it was convenient and having a suite makes it great for everyone coming in and out to visit and party!  The free breakfast was greatly appreciated as the morning after we were all needing sustenance!!More</t>
   </si>
   <si>
-    <t>Dan J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r179388014-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1139,9 +1180,6 @@
     <t>I was concerned about the rating at 2 1/2 stars but it was vary clean and I had no complaints. The Smoking area in front has a problem with people thoughing the cig. butts on the drive way as they do have an ash tray in the area for them.More</t>
   </si>
   <si>
-    <t>Trina H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r170166399-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1157,9 +1195,6 @@
     <t>On our drive from OKC to Houston we decided to stop and get some rest. This was a great choice. Very clean and spacious. The free breakfast was a plus. The outdoor pool looked nice but unfortunately we didn't have time to enjoy it. I would definitely stay here again.</t>
   </si>
   <si>
-    <t>brownbear253</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r160005858-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1178,9 +1213,6 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t>Rhonda K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r157443510-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1199,9 +1231,6 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>Jessica D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r155336252-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1223,9 +1252,6 @@
     <t>We arrived at 12:30am after being on the road for 8 hours. Upon getting settled in our room I found a half drank bottle of water on the floor at the foot of the bed and 2 pieces of trash (1 being a pill wrapper) Being too tired to mess with it, I addressed it with Summer at the front desk in the morning. An hr later at ck out, Summer said I should get me rm free but she can't do it, I should call and talk to the GM and if not talk to the owner, Ricky. When I phoned the hotel to speak with them I got Ricky, without knowing, and she was SO RUDE! She questioned why I should get a discount when I didn't address my findings when I found them (umm cause it was 1am and we were tired!) She offered me a 10% ($8) She was very rude and would not let me talk. Ricky had ZERO compassion for her guests and then stated she has a great staff and housekeeping--- not if they left trash in a room and the FD person I dealt with was FIRED (Ricky told me that!) I am looking for her corporate # to turn her in! Oh and she hung up on me!!! NEVER AGAIN!!!More</t>
   </si>
   <si>
-    <t>PACRatDeb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r155331201-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1241,9 +1267,6 @@
     <t>We encountered the same clerk as the review on March 14. When we checked in, he didn't do much talking. Looked at me like I was disturbing him and only said, "Sign here," then handed me my keys. We went to supper and when we came back we stopped at the front desk for sheets for the hideaway bed. Nobody in sight. Sign on desk telling us the clerk has stepped away and instructions to ring the bell if you need service. No bell or clerk to be found. We started to the elevator and found him around the corner and asked for the sheets. We thought maybe he was having a bad day, so we gave him the benefit of doubt and shrugged it off. But the next night after a long day away from the hotel, we went to our room and our key cards would not work. We saw our "friendly" (NOT!)  clerk when we came in, but when we came back to the desk to complain about not being able to enter our room, where of course all our belongings were located, no clerk to be found. After several minutes of searching for our lost clerk, looking for the missing bell, &amp; making a plan of action of where to report this problem and get our belongings &amp; possibly leave, he shows up being followed by an older gentleman who mentioned that the clerk had helped...We encountered the same clerk as the review on March 14. When we checked in, he didn't do much talking. Looked at me like I was disturbing him and only said, "Sign here," then handed me my keys. We went to supper and when we came back we stopped at the front desk for sheets for the hideaway bed. Nobody in sight. Sign on desk telling us the clerk has stepped away and instructions to ring the bell if you need service. No bell or clerk to be found. We started to the elevator and found him around the corner and asked for the sheets. We thought maybe he was having a bad day, so we gave him the benefit of doubt and shrugged it off. But the next night after a long day away from the hotel, we went to our room and our key cards would not work. We saw our "friendly" (NOT!)  clerk when we came in, but when we came back to the desk to complain about not being able to enter our room, where of course all our belongings were located, no clerk to be found. After several minutes of searching for our lost clerk, looking for the missing bell, &amp; making a plan of action of where to report this problem and get our belongings &amp; possibly leave, he shows up being followed by an older gentleman who mentioned that the clerk had helped him with his car. Ok, maybe he actually showed customer service to someone. He apologized to us and gave us new key cards. I asked him about the bell and he actually smiled and mumbled, "it was stolen". I think conveniently it has been stolen. My suggestion.........buy a new bell or change your sign or stay at your desk. The hotel room was clean and comfy. The breakfast was ok. And the morning clerk was very friendly and was a better representative of customer service - aware of her surroundings, courteous, and ever present. But I think the night clerk needs some correction, customer service training and a more professional look.  No problems with his obvious tatoos, but his clothing was too casual for a business managenent representative. He was dressed like he was part of the "hood", waiting for some action. If traveling this way again, I would consider staying again, hoping another clerk would be working. The hotel itself was sufficient.More</t>
   </si>
   <si>
-    <t>CindyM0044</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r154571875-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1262,9 +1285,6 @@
     <t>Stayed at this hotel on March 9. 2013. The hotel was very nice and clean, sets back off the highway and is a litle hard to get to.  Only problem was the front desk clerk.  I don't know his name because he didn't wear a name badge but he's the one with letters tattooed across the top of both hands.  We walked in and he didn't greet us in fact he just looked at me till I gave him my name and then he got our keys and laid a paper in front of me and said sign here and initial there and that's all he said.  We asked how to get on the internet and he said it's free and headed to the back.  Later I went downstairs to see if they had any tea bags and waited at the counter but he was no were in sight.  There was a party of 20-30 people in the breakfast room so maybe he was in there.  Next day we checked out with the same guy and I at least got a thank you mam when I handed in my keys.  Can't say he was rude just indifferent.More</t>
   </si>
   <si>
-    <t>dcarson4</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r149360744-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1283,9 +1303,6 @@
     <t>December 2012</t>
   </si>
   <si>
-    <t>kdbingham</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r146654024-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1304,9 +1321,6 @@
     <t>November 2012</t>
   </si>
   <si>
-    <t>Craig J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r141822599-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1325,9 +1339,6 @@
     <t>September 2012</t>
   </si>
   <si>
-    <t>Staceyleesoldan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r137160015-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1346,9 +1357,6 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>Wayne T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r129862330-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1367,9 +1375,6 @@
     <t>May 2012</t>
   </si>
   <si>
-    <t>YourNextGuest</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r125145138-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1388,9 +1393,6 @@
     <t>December 2011</t>
   </si>
   <si>
-    <t>Always67Amazed</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r114435040-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1418,9 +1420,6 @@
     <t>Stopped here on the way back home.  Bed was very comfortable.  Room very spacious and clean.  Couldn't have asked for a nicer room and great priceMore</t>
   </si>
   <si>
-    <t>jackiemc08</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r88966657-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1439,9 +1438,6 @@
     <t>November 2010</t>
   </si>
   <si>
-    <t>travelgirl51560</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r88446565-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1460,9 +1456,6 @@
     <t>i stayed here 1 night. there is no service here. i asked for more pillows &amp; they said they don't have any. on the bed was 4 pillows about half the size of a regular pillow. ..they were square??? the breakfast here is just cereal - some old pastries - 3 day old biscuits (literally) you can make your own waffles - or they have these premade overcooked eggs that they've folded over a piece of velveeta. the front desk people didn't even speak to you when you walked in or out. it's just a budget hotel. the rooms are budget rooms - slightly larger than a regular room w/ that super hard furniture in the sitting area. i felt like instead of $79/night it should have been $50. It wasn't worth the price &amp; I'm not sure why people are mentioning things like how wonderful the breakfast is or how a bride could get ready here? it seemed safe &amp; it had a bed that felt like a cheap hard bed. i'd stay here again - i wouldn't eat here though &amp; i wouldn't stay longer than the 1 night i had to.More</t>
   </si>
   <si>
-    <t>ranger058</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r85266598-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1472,18 +1465,12 @@
     <t>10/29/2010</t>
   </si>
   <si>
-    <t>Great place to stay</t>
-  </si>
-  <si>
     <t>The rooms were spacious and clean the breakfast was good .The staff were extremely helpful with what ever you needed. A good location near to to I -45 would stay here again.</t>
   </si>
   <si>
     <t>October 2010</t>
   </si>
   <si>
-    <t>susang71</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r81833913-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1502,9 +1489,6 @@
     <t>Came from Houston going to the UT - OU game. Reserved a room here because it is VERY convenient access on and off I-45 and a quick trip to the fair grounds. First time to stay here. We will be back! Rooms were clean. Full free breakfast was tasty. (lots of choices -biscuits, bacon, cheese omelets, hazelnut creamer, splenda, great coffee.) The staff was polite. Best of all - across the highway is a Chili's and a 24 hour  "flagship" Whataburger with an automatic sliding glass door entrance, great decor, "Buckeesque" restroom, jukebox, and flat screen TV. (It was the only Whataburger we saw on the trip once we got past Hunstville.)More</t>
   </si>
   <si>
-    <t>TravelKingandQueen90</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r77406245-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1526,9 +1510,6 @@
     <t>Great hotel with friendly staff, clean and large rooms, excellent breakfast choices, and speedy check in and out. Decided to book this hotel on a whim and was pleasantly surprised. Has more than adequate mirrors in the room (I counted about 5) that makes a great location for a bride getting ready for her special day. Plenty of room for getting dressed and mirrors are nice sized and spread throughout the room. Will visit again for another quick getaway. Near many eateries and a Wal-Mart just down the street. Enjoyed a delicious meal at Marsala's which is a great Italian food that is right off the downtown square area. Super easy access on and off of I-45.More</t>
   </si>
   <si>
-    <t>TravelsAlot1955</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r60214146-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1547,9 +1528,6 @@
     <t>March 2010</t>
   </si>
   <si>
-    <t>mamaofthreeTexas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r59498706-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1565,9 +1543,6 @@
     <t>We stayed the weekend for a family reunion. We had about 10 rooms. Where the facility was very nice the attention to detail lacked. My biggest concern was when I called down and asked to be connected to another guest room the front desk stated "Let me give you that room number and you can just dial it directly" YIKES!! I have been in the industry for 26 years and this is one of the worst things a desk associate can do. Just a few things in our room that needed attention. Overall it was a very nice weekend and I would recommed this hotel.</t>
   </si>
   <si>
-    <t>JoshuaBusby</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r52340913-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1586,9 +1561,6 @@
     <t>June 2008</t>
   </si>
   <si>
-    <t>shanmccown</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r43198039-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1607,9 +1579,6 @@
     <t>We initially enjoyed our stay.  The rooms were clean and the staff was very polite.  However, a week after returning home I found a charge on our credit card from Comfort Suites for the amount of $150.00 for damages.  They had charged us without even notifying us and it was not on our bill when we checked out.  I called the hotel to find out what the extra fee was for.  The receptionist looked up our account and told me that it was for a stain on the duvet.  I asked her what kind of stain, and how large it was because we did not recall spilling anything on the bed.  Honestly, we were hardly ever in the room the entire stay.  Anyway, the receptionist said that the paperwork didn't specify but she would find out and call me back.  She never called back.  My husband called a couple of days later and got the same response.  The receptionist said she would speak with a manager and get back with us.  Again, they never returned our calls.  We put a hold payment on that transaction on our credit card so the credit card company would investigate the charge.  A few weeks later we recieved a letter from our credit card stating that they could not do anything about the charge since it was done "post audit" , whatever that means, and suggested that we contact the hotel again to try...We initially enjoyed our stay.  The rooms were clean and the staff was very polite.  However, a week after returning home I found a charge on our credit card from Comfort Suites for the amount of $150.00 for damages.  They had charged us without even notifying us and it was not on our bill when we checked out.  I called the hotel to find out what the extra fee was for.  The receptionist looked up our account and told me that it was for a stain on the duvet.  I asked her what kind of stain, and how large it was because we did not recall spilling anything on the bed.  Honestly, we were hardly ever in the room the entire stay.  Anyway, the receptionist said that the paperwork didn't specify but she would find out and call me back.  She never called back.  My husband called a couple of days later and got the same response.  The receptionist said she would speak with a manager and get back with us.  Again, they never returned our calls.  We put a hold payment on that transaction on our credit card so the credit card company would investigate the charge.  A few weeks later we recieved a letter from our credit card stating that they could not do anything about the charge since it was done "post audit" , whatever that means, and suggested that we contact the hotel again to try and get a credit.  Needless to say, it has been almost two months since we stayed at the Comfort Suites in Ennis and they have yet to return any of our calls.  Honestly, if they had been professional and had made the effort to speak with us about the charge up front, we would not have been so upset.  Maybe we did accidentally stain the duvet, but to our knowledge nothing was spilled on the bed at any time during our stay.  To this day we do not know the exact details of what they were calling "damages."  So basically our complaint is that they charged our credit card $150 without notifying us and without specifying what the charge was for, and they were never willing to return our calls to discuss the chargeMore</t>
   </si>
   <si>
-    <t>ssfsp</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r38170460-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1631,9 +1600,6 @@
     <t>My kids wanted to get away for the day due to the fact  school is starting back up. So we went to the Comfort Suites in Ennis and got the best deal on a room the rate was great and then the outside pool was wonderful.  To top is off at 3:00 they have fresh baked cookies for the guest and then we found out it was the night they grill outside for all the guest at the hotel. The food was great not only did we get a great price on the room but then we had super there and then the next morning they had  an outstanding breakfast. The staff is great so intuned to your needs and willing to make  the stay the best  ever.More</t>
   </si>
   <si>
-    <t>rbmendez</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r38168921-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1649,9 +1615,6 @@
     <t>August 2009</t>
   </si>
   <si>
-    <t>rjkcpktrips</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r34589513-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1668,9 +1631,6 @@
   </si>
   <si>
     <t>My wife and I spent a quick night here on our way back from the Houston area to get closer to the Dallas/Fort-Worth airport.  This was a very clean hotel.  Rooms had flat screen tv's which was a nice touch.  Hotel was located right along I-45.  There is a pool there which looked nice, and even grills if you wanted to bbq.  Breakfast was ok.  Eggs, and bacon was complimentary there.  I have to reccomend Bubbas which is about 300 feet down the road.  EXCELLENT resturant!  As I said, we spent roughly 12 hours in this hotel but I would recommend this place to spend a night in between your destination.More</t>
-  </si>
-  <si>
-    <t>jvmarr</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r30856879-Comfort_Suites-Ennis_Texas.html</t>
@@ -1700,9 +1660,6 @@
 The room was otherwise very clean and appeared almost brand new.  The breakfast area was clean well...Our family, 2 adults &amp; 2 small children, stayed at this hotel during a recent road trip to visit friends.  We arrived just before 11 PM after traveling 4 hours.  I approached the front desk, which was manned by 2 people.  One was on the telephone discussing movie options for after work.  The other asked if I was there to check-in.  She had my keys ready just behind the desk with a slip for me to sign.  We went to our room and went to bed.Then at 3:30 AM the phone in the room began ringing...and rang and rang and rang.  My husband finally answered to hear a female voice from the front desk say, "just checking to see if we were actually there."  She had no record of our arrival and decided to call and ask if were were there?!?!  Then we received a bill with the wrong rate and had to print out a copy of our email confirmation to prove to the front desk staff that it was wrong.  Upon "proving" our booked rate the bill was adjusted...with no real apology or explanation as to why someone would call our room at that hour.The only other real negative was a dead bug in the bathroom, but in my opinion a dead bug is better than a living bug.The room was otherwise very clean and appeared almost brand new.  The breakfast area was clean well stocked with a good selection.  The hostess was very friendly.  My only complaint would be the television being up so loud during breakfast.  It just so happened that the morning news show was featuring a story on how to improve fertility and have better sex...not one I want to explain to my pre-schoolers over Texas shaped waffles.More</t>
   </si>
   <si>
-    <t>UTAEngg92</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r17366267-Comfort_Suites-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1719,9 +1676,6 @@
   </si>
   <si>
     <t>My wife and I traveled to Ennis this weekend to enjoy an evening at the Galaxy Drive-In.  Since I did not feel like driving back at two in the morning, we booked a stay at the Comfort Suites.  I'm glad we did.  The staff were very friendly, the rooms were spacious and clean, and the fact that this is a smoke free hotel, made it even better.  My only complaint would be the free breakfast.  I read another review before booking and they mentioned bacon and sausage.  There was none.  What was available was delicious.  On our way back to McKinney, we stopped at Bubba's BBQ which is about a block north from the hotel.  Great food.  They really deserve to be in Texas Monthly's top 50 BBQ joints.More</t>
-  </si>
-  <si>
-    <t>GoodGuest</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d677439-r10928022-Comfort_Suites-Ennis_Texas.html</t>
@@ -2247,150 +2201,138 @@
       <c r="A2" t="n">
         <v>56420</v>
       </c>
-      <c r="B2" t="n">
-        <v>125311</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>56420</v>
       </c>
-      <c r="B3" t="n">
-        <v>125312</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" t="s">
-        <v>59</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>56420</v>
       </c>
-      <c r="B4" t="n">
-        <v>125313</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
         <v>62</v>
@@ -2405,25 +2347,25 @@
         <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
         <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -2438,357 +2380,343 @@
       <c r="A5" t="n">
         <v>56420</v>
       </c>
-      <c r="B5" t="n">
-        <v>125314</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>56420</v>
       </c>
-      <c r="B6" t="n">
-        <v>125315</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>79</v>
       </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" t="s">
-        <v>59</v>
-      </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>56420</v>
       </c>
-      <c r="B7" t="n">
-        <v>2192</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>84</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="K7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>81</v>
-      </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>56420</v>
       </c>
-      <c r="B8" t="n">
-        <v>88122</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
         <v>89</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="J8" t="s">
-        <v>91</v>
-      </c>
-      <c r="K8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" t="s">
-        <v>93</v>
-      </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>95</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>56420</v>
       </c>
-      <c r="B9" t="n">
-        <v>114787</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
         <v>97</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" t="s">
-        <v>101</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" t="s"/>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>56420</v>
       </c>
-      <c r="B10" t="n">
-        <v>125316</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -2798,72 +2726,56 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>109</v>
-      </c>
-      <c r="X10" t="s">
-        <v>110</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>56420</v>
       </c>
-      <c r="B11" t="n">
-        <v>125317</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O11" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
@@ -2874,61 +2786,55 @@
         <v>110</v>
       </c>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>56420</v>
       </c>
-      <c r="B12" t="n">
-        <v>35013</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
       </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
@@ -2945,59 +2851,57 @@
         <v>110</v>
       </c>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>56420</v>
       </c>
-      <c r="B13" t="n">
-        <v>1541</v>
-      </c>
-      <c r="C13" t="s">
-        <v>128</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
@@ -3014,64 +2918,60 @@
         <v>110</v>
       </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>56420</v>
       </c>
-      <c r="B14" t="n">
-        <v>125318</v>
-      </c>
-      <c r="C14" t="s">
-        <v>136</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -3083,66 +2983,60 @@
         <v>110</v>
       </c>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>56420</v>
       </c>
-      <c r="B15" t="n">
-        <v>4967</v>
-      </c>
-      <c r="C15" t="s">
-        <v>144</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>95</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -3154,267 +3048,251 @@
         <v>110</v>
       </c>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>56420</v>
       </c>
-      <c r="B16" t="n">
-        <v>125319</v>
-      </c>
-      <c r="C16" t="s">
-        <v>151</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="X16" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>56420</v>
       </c>
-      <c r="B17" t="n">
-        <v>125320</v>
-      </c>
-      <c r="C17" t="s">
-        <v>161</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="X17" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>56420</v>
       </c>
-      <c r="B18" t="n">
-        <v>125321</v>
-      </c>
-      <c r="C18" t="s">
-        <v>168</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>2</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="X18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Y18" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>56420</v>
       </c>
-      <c r="B19" t="n">
-        <v>42690</v>
-      </c>
-      <c r="C19" t="s">
-        <v>176</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
       <c r="R19" t="s"/>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
@@ -3424,338 +3302,318 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="X19" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="Y19" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>56420</v>
       </c>
-      <c r="B20" t="n">
-        <v>125322</v>
-      </c>
-      <c r="C20" t="s">
-        <v>185</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="J20" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="O20" t="s">
-        <v>74</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="X20" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="Y20" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>56420</v>
       </c>
-      <c r="B21" t="n">
-        <v>125323</v>
-      </c>
-      <c r="C21" t="s">
-        <v>193</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>4</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
+        <v>173</v>
+      </c>
+      <c r="X21" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y21" t="s">
         <v>182</v>
-      </c>
-      <c r="X21" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>56420</v>
       </c>
-      <c r="B22" t="n">
-        <v>125324</v>
-      </c>
-      <c r="C22" t="s">
-        <v>200</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="J22" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="X22" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="Y22" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>56420</v>
       </c>
-      <c r="B23" t="n">
-        <v>92592</v>
-      </c>
-      <c r="C23" t="s">
-        <v>209</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="J23" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="K23" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="O23" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>4</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="X23" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="Y23" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>56420</v>
       </c>
-      <c r="B24" t="n">
-        <v>17407</v>
-      </c>
-      <c r="C24" t="s">
-        <v>217</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="J24" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="K24" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="O24" t="s">
-        <v>95</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
@@ -3765,201 +3623,191 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="X24" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="Y24" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>56420</v>
       </c>
-      <c r="B25" t="n">
-        <v>125325</v>
-      </c>
-      <c r="C25" t="s">
-        <v>225</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="J25" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="K25" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="O25" t="s">
-        <v>232</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
       <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="X25" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="Y25" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>56420</v>
       </c>
-      <c r="B26" t="n">
-        <v>86045</v>
-      </c>
-      <c r="C26" t="s">
-        <v>234</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="J26" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="L26" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="X26" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="Y26" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>56420</v>
       </c>
-      <c r="B27" t="n">
-        <v>70744</v>
-      </c>
-      <c r="C27" t="s">
-        <v>242</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="J27" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>5</v>
@@ -3968,69 +3816,63 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="X27" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="Y27" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>56420</v>
       </c>
-      <c r="B28" t="n">
-        <v>125326</v>
-      </c>
-      <c r="C28" t="s">
-        <v>250</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="J28" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="K28" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="O28" t="s">
-        <v>232</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -4039,66 +3881,64 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="X28" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="Y28" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>56420</v>
       </c>
-      <c r="B29" t="n">
-        <v>125327</v>
-      </c>
-      <c r="C29" t="s">
-        <v>258</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="J29" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="K29" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="O29" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
       </c>
       <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -4108,125 +3948,121 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="X29" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="Y29" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>56420</v>
       </c>
-      <c r="B30" t="n">
-        <v>125319</v>
-      </c>
-      <c r="C30" t="s">
-        <v>161</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="L30" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="O30" t="s">
-        <v>74</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>245</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="X30" t="s">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="Y30" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>56420</v>
       </c>
-      <c r="B31" t="n">
-        <v>19183</v>
-      </c>
-      <c r="C31" t="s">
-        <v>275</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="J31" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="K31" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="O31" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4238,57 +4074,57 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="X31" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="Y31" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>56420</v>
       </c>
-      <c r="B32" t="n">
-        <v>125328</v>
-      </c>
-      <c r="C32" t="s">
-        <v>284</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="J32" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="K32" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="L32" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>202</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
@@ -4299,135 +4135,123 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="X32" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="Y32" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>56420</v>
       </c>
-      <c r="B33" t="n">
-        <v>125329</v>
-      </c>
-      <c r="C33" t="s">
-        <v>293</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="J33" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="K33" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="L33" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>299</v>
+        <v>202</v>
       </c>
       <c r="O33" t="s">
-        <v>59</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R33" t="s"/>
       <c r="S33" t="n">
         <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="X33" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="Y33" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>56420</v>
       </c>
-      <c r="B34" t="n">
-        <v>125330</v>
-      </c>
-      <c r="C34" t="s">
-        <v>303</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="J34" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="K34" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="L34" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="O34" t="s">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4439,145 +4263,127 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="X34" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="Y34" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>56420</v>
       </c>
-      <c r="B35" t="n">
-        <v>125331</v>
-      </c>
-      <c r="C35" t="s">
-        <v>312</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="J35" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="K35" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="L35" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="O35" t="s">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
       </c>
-      <c r="Q35" t="n">
-        <v>3</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="X35" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="Y35" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>56420</v>
       </c>
-      <c r="B36" t="n">
-        <v>1214</v>
-      </c>
-      <c r="C36" t="s">
-        <v>322</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="J36" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="K36" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="O36" t="s">
-        <v>59</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
         <v>5</v>
       </c>
@@ -4589,74 +4395,78 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="X36" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="Y36" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>56420</v>
       </c>
-      <c r="B37" t="n">
-        <v>125332</v>
-      </c>
-      <c r="C37" t="s">
-        <v>332</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="J37" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="K37" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
-      </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
-      <c r="P37" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>299</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="X37" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="Y37" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38">
@@ -4669,121 +4479,103 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="J38" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="K38" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
-      <c r="N38" t="s">
-        <v>328</v>
-      </c>
-      <c r="O38" t="s">
-        <v>59</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3</v>
-      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>3</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="X38" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="Y38" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>56420</v>
       </c>
-      <c r="B39" t="n">
-        <v>3283</v>
-      </c>
-      <c r="C39" t="s">
-        <v>347</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="J39" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="K39" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="O39" t="s">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -4796,147 +4588,129 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="X39" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="Y39" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>56420</v>
       </c>
-      <c r="B40" t="n">
-        <v>125322</v>
-      </c>
-      <c r="C40" t="s">
-        <v>193</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="J40" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="K40" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="L40" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="O40" t="s">
-        <v>59</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>3</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="X40" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="Y40" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>56420</v>
       </c>
-      <c r="B41" t="n">
-        <v>51474</v>
-      </c>
-      <c r="C41" t="s">
-        <v>364</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="J41" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="K41" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="L41" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>217</v>
       </c>
       <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
         <v>3</v>
       </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
       <c r="R41" t="n">
         <v>4</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
@@ -4946,62 +4720,62 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="X41" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="Y41" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>56420</v>
       </c>
-      <c r="B42" t="n">
-        <v>125333</v>
-      </c>
-      <c r="C42" t="s">
-        <v>371</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="J42" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="K42" t="s">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="L42" t="s">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>342</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
       <c r="P42" t="n">
         <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R42" t="n">
         <v>5</v>
@@ -5016,420 +4790,406 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>343</v>
+      </c>
+      <c r="X42" t="s">
+        <v>344</v>
+      </c>
       <c r="Y42" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>56420</v>
       </c>
-      <c r="B43" t="n">
-        <v>125334</v>
-      </c>
-      <c r="C43" t="s">
-        <v>377</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="J43" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="K43" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="L43" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
-      <c r="N43" t="s">
-        <v>383</v>
-      </c>
-      <c r="O43" t="s">
-        <v>59</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>351</v>
+      </c>
+      <c r="X43" t="s">
+        <v>352</v>
+      </c>
       <c r="Y43" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>56420</v>
       </c>
-      <c r="B44" t="n">
-        <v>71380</v>
-      </c>
-      <c r="C44" t="s">
-        <v>384</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="J44" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="K44" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="O44" t="s">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>351</v>
+      </c>
+      <c r="X44" t="s">
+        <v>352</v>
+      </c>
       <c r="Y44" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>56420</v>
       </c>
-      <c r="B45" t="n">
-        <v>27174</v>
-      </c>
-      <c r="C45" t="s">
-        <v>391</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="J45" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="K45" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="O45" t="s">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c r="P45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R45" t="n">
         <v>3</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>366</v>
+      </c>
+      <c r="X45" t="s">
+        <v>367</v>
+      </c>
       <c r="Y45" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>56420</v>
       </c>
-      <c r="B46" t="n">
-        <v>125335</v>
-      </c>
-      <c r="C46" t="s">
-        <v>399</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="J46" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="K46" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="L46" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
+      <c r="N46" t="s">
+        <v>374</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
       <c r="P46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>366</v>
+      </c>
+      <c r="X46" t="s">
+        <v>367</v>
+      </c>
       <c r="Y46" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>56420</v>
       </c>
-      <c r="B47" t="n">
-        <v>11641</v>
-      </c>
-      <c r="C47" t="s">
-        <v>405</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="J47" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="K47" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="L47" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="O47" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q47" t="n">
         <v>5</v>
       </c>
       <c r="R47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>366</v>
+      </c>
+      <c r="X47" t="s">
+        <v>367</v>
+      </c>
       <c r="Y47" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>56420</v>
       </c>
-      <c r="B48" t="n">
-        <v>125336</v>
-      </c>
-      <c r="C48" t="s">
-        <v>412</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="J48" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="K48" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="L48" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
-      </c>
-      <c r="N48" t="s">
-        <v>418</v>
-      </c>
-      <c r="O48" t="s">
-        <v>59</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
       <c r="P48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
@@ -5441,57 +5201,53 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>56420</v>
       </c>
-      <c r="B49" t="n">
-        <v>125337</v>
-      </c>
-      <c r="C49" t="s">
-        <v>419</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="J49" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="K49" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="L49" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="O49" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q49" t="n">
         <v>5</v>
@@ -5503,77 +5259,75 @@
         <v>5</v>
       </c>
       <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>56420</v>
       </c>
-      <c r="B50" t="n">
-        <v>99407</v>
-      </c>
-      <c r="C50" t="s">
-        <v>426</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="J50" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="K50" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="L50" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="O50" t="s">
-        <v>59</v>
+        <v>217</v>
       </c>
       <c r="P50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R50" t="n">
         <v>5</v>
       </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -5581,70 +5335,66 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>56420</v>
       </c>
-      <c r="B51" t="n">
-        <v>125338</v>
-      </c>
-      <c r="C51" t="s">
-        <v>433</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>434</v>
+        <v>399</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="J51" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="K51" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="L51" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="O51" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
         <v>3</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
       </c>
       <c r="R51" t="n">
         <v>3</v>
       </c>
       <c r="S51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5652,131 +5402,129 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>56420</v>
       </c>
-      <c r="B52" t="n">
-        <v>16241</v>
-      </c>
-      <c r="C52" t="s">
-        <v>440</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="J52" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
       <c r="K52" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="L52" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="s">
-        <v>446</v>
-      </c>
-      <c r="O52" t="s">
-        <v>59</v>
-      </c>
-      <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
-      <c r="S52" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>56420</v>
       </c>
-      <c r="B53" t="n">
-        <v>125339</v>
-      </c>
-      <c r="C53" t="s">
-        <v>447</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>448</v>
+        <v>411</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="J53" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="K53" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="L53" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>453</v>
+        <v>404</v>
       </c>
       <c r="O53" t="s">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5784,212 +5532,198 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>56420</v>
       </c>
-      <c r="B54" t="n">
-        <v>125340</v>
-      </c>
-      <c r="C54" t="s">
-        <v>454</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="J54" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="K54" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="L54" t="s">
-        <v>459</v>
+        <v>421</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="O54" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P54" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s">
-        <v>461</v>
-      </c>
-      <c r="X54" t="s">
-        <v>462</v>
-      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>56420</v>
       </c>
-      <c r="B55" t="n">
-        <v>125341</v>
-      </c>
-      <c r="C55" t="s">
-        <v>464</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>466</v>
+        <v>424</v>
       </c>
       <c r="J55" t="s">
-        <v>467</v>
+        <v>425</v>
       </c>
       <c r="K55" t="s">
-        <v>468</v>
+        <v>426</v>
       </c>
       <c r="L55" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="O55" t="s">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
       </c>
       <c r="Q55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R55" t="n">
         <v>5</v>
       </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>3</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>469</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>56420</v>
       </c>
-      <c r="B56" t="n">
-        <v>125342</v>
-      </c>
-      <c r="C56" t="s">
-        <v>471</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>472</v>
+        <v>429</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>473</v>
+        <v>430</v>
       </c>
       <c r="J56" t="s">
-        <v>474</v>
+        <v>431</v>
       </c>
       <c r="K56" t="s">
-        <v>475</v>
+        <v>432</v>
       </c>
       <c r="L56" t="s">
-        <v>476</v>
+        <v>433</v>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="O56" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5997,70 +5731,66 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>477</v>
+        <v>433</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>56420</v>
       </c>
-      <c r="B57" t="n">
-        <v>125343</v>
-      </c>
-      <c r="C57" t="s">
-        <v>478</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>480</v>
+        <v>436</v>
       </c>
       <c r="J57" t="s">
-        <v>481</v>
+        <v>437</v>
       </c>
       <c r="K57" t="s">
-        <v>482</v>
+        <v>438</v>
       </c>
       <c r="L57" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="O57" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q57" t="n">
         <v>5</v>
       </c>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -6068,141 +5798,123 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>56420</v>
       </c>
-      <c r="B58" t="n">
-        <v>125344</v>
-      </c>
-      <c r="C58" t="s">
-        <v>485</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>487</v>
+        <v>442</v>
       </c>
       <c r="J58" t="s">
-        <v>488</v>
+        <v>443</v>
       </c>
       <c r="K58" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="L58" t="s">
-        <v>490</v>
+        <v>445</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="O58" t="s">
-        <v>74</v>
-      </c>
-      <c r="P58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>5</v>
-      </c>
-      <c r="R58" t="n">
-        <v>5</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>5</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>491</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>56420</v>
       </c>
-      <c r="B59" t="n">
-        <v>125345</v>
-      </c>
-      <c r="C59" t="s">
-        <v>492</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>493</v>
+        <v>447</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>494</v>
+        <v>448</v>
       </c>
       <c r="J59" t="s">
-        <v>495</v>
+        <v>449</v>
       </c>
       <c r="K59" t="s">
-        <v>496</v>
+        <v>450</v>
       </c>
       <c r="L59" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>498</v>
+        <v>452</v>
       </c>
       <c r="O59" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="P59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -6210,125 +5922,117 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>499</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>56420</v>
       </c>
-      <c r="B60" t="n">
-        <v>125346</v>
-      </c>
-      <c r="C60" t="s">
-        <v>500</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>501</v>
+        <v>453</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>502</v>
+        <v>454</v>
       </c>
       <c r="J60" t="s">
-        <v>503</v>
+        <v>455</v>
       </c>
       <c r="K60" t="s">
-        <v>504</v>
+        <v>456</v>
       </c>
       <c r="L60" t="s">
-        <v>505</v>
+        <v>457</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>506</v>
+        <v>458</v>
       </c>
       <c r="O60" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P60" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
       <c r="S60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>459</v>
+      </c>
+      <c r="X60" t="s">
+        <v>460</v>
+      </c>
       <c r="Y60" t="s">
-        <v>505</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>56420</v>
       </c>
-      <c r="B61" t="n">
-        <v>125347</v>
-      </c>
-      <c r="C61" t="s">
-        <v>507</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>508</v>
+        <v>462</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>509</v>
+        <v>463</v>
       </c>
       <c r="J61" t="s">
-        <v>510</v>
+        <v>464</v>
       </c>
       <c r="K61" t="s">
-        <v>511</v>
+        <v>465</v>
       </c>
       <c r="L61" t="s">
-        <v>512</v>
+        <v>466</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="O61" t="s">
-        <v>59</v>
+        <v>217</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6337,10 +6041,10 @@
         <v>3</v>
       </c>
       <c r="R61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
@@ -6352,127 +6056,133 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>512</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>56420</v>
       </c>
-      <c r="B62" t="n">
-        <v>125348</v>
-      </c>
-      <c r="C62" t="s">
-        <v>513</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>514</v>
+        <v>468</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>515</v>
+        <v>469</v>
       </c>
       <c r="J62" t="s">
-        <v>516</v>
+        <v>470</v>
       </c>
       <c r="K62" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="L62" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>519</v>
+        <v>467</v>
       </c>
       <c r="O62" t="s">
-        <v>59</v>
-      </c>
-      <c r="P62" t="s"/>
-      <c r="Q62" t="s"/>
-      <c r="R62" t="s"/>
-      <c r="S62" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
       <c r="T62" t="s"/>
-      <c r="U62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>518</v>
+        <v>473</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>56420</v>
       </c>
-      <c r="B63" t="n">
-        <v>125349</v>
-      </c>
-      <c r="C63" t="s">
-        <v>520</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>521</v>
+        <v>474</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I63" t="s">
-        <v>522</v>
+        <v>475</v>
       </c>
       <c r="J63" t="s">
-        <v>523</v>
+        <v>476</v>
       </c>
       <c r="K63" t="s">
-        <v>524</v>
+        <v>297</v>
       </c>
       <c r="L63" t="s">
-        <v>525</v>
+        <v>477</v>
       </c>
       <c r="M63" t="n">
-        <v>2</v>
-      </c>
-      <c r="N63" t="s"/>
-      <c r="O63" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>478</v>
+      </c>
+      <c r="O63" t="s">
+        <v>79</v>
+      </c>
       <c r="P63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -6480,54 +6190,50 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>526</v>
+        <v>477</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>56420</v>
       </c>
-      <c r="B64" t="n">
-        <v>125350</v>
-      </c>
-      <c r="C64" t="s">
-        <v>527</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="J64" t="s">
-        <v>530</v>
+        <v>481</v>
       </c>
       <c r="K64" t="s">
-        <v>531</v>
+        <v>482</v>
       </c>
       <c r="L64" t="s">
-        <v>532</v>
+        <v>483</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>533</v>
+        <v>478</v>
       </c>
       <c r="O64" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6536,7 +6242,7 @@
         <v>5</v>
       </c>
       <c r="R64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S64" t="n">
         <v>5</v>
@@ -6551,54 +6257,50 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>534</v>
+        <v>484</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>56420</v>
       </c>
-      <c r="B65" t="n">
-        <v>125351</v>
-      </c>
-      <c r="C65" t="s">
-        <v>535</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>536</v>
+        <v>485</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I65" t="s">
-        <v>537</v>
+        <v>486</v>
       </c>
       <c r="J65" t="s">
-        <v>530</v>
+        <v>487</v>
       </c>
       <c r="K65" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="L65" t="s">
-        <v>539</v>
+        <v>489</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>540</v>
+        <v>490</v>
       </c>
       <c r="O65" t="s">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6607,7 +6309,7 @@
         <v>5</v>
       </c>
       <c r="R65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S65" t="n">
         <v>5</v>
@@ -6622,70 +6324,66 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>539</v>
+        <v>491</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>56420</v>
       </c>
-      <c r="B66" t="n">
-        <v>125352</v>
-      </c>
-      <c r="C66" t="s">
-        <v>541</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I66" t="s">
-        <v>543</v>
+        <v>493</v>
       </c>
       <c r="J66" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="K66" t="s">
-        <v>545</v>
+        <v>495</v>
       </c>
       <c r="L66" t="s">
-        <v>546</v>
+        <v>496</v>
       </c>
       <c r="M66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="O66" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S66" t="n">
         <v>5</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -6693,57 +6391,53 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>547</v>
+        <v>496</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>56420</v>
       </c>
-      <c r="B67" t="n">
-        <v>125353</v>
-      </c>
-      <c r="C67" t="s">
-        <v>548</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>549</v>
+        <v>498</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I67" t="s">
-        <v>550</v>
+        <v>499</v>
       </c>
       <c r="J67" t="s">
-        <v>551</v>
+        <v>500</v>
       </c>
       <c r="K67" t="s">
-        <v>552</v>
+        <v>501</v>
       </c>
       <c r="L67" t="s">
-        <v>553</v>
+        <v>502</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>554</v>
+        <v>497</v>
       </c>
       <c r="O67" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q67" t="n">
         <v>3</v>
@@ -6756,7 +6450,7 @@
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -6764,141 +6458,119 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>555</v>
+        <v>502</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>56420</v>
       </c>
-      <c r="B68" t="n">
-        <v>125354</v>
-      </c>
-      <c r="C68" t="s">
-        <v>556</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>557</v>
+        <v>503</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I68" t="s">
-        <v>558</v>
+        <v>504</v>
       </c>
       <c r="J68" t="s">
-        <v>559</v>
+        <v>505</v>
       </c>
       <c r="K68" t="s">
-        <v>560</v>
+        <v>506</v>
       </c>
       <c r="L68" t="s">
-        <v>561</v>
+        <v>507</v>
       </c>
       <c r="M68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="O68" t="s">
-        <v>74</v>
-      </c>
-      <c r="P68" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>5</v>
-      </c>
-      <c r="R68" t="n">
-        <v>5</v>
-      </c>
-      <c r="S68" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
       <c r="T68" t="s"/>
-      <c r="U68" t="n">
-        <v>5</v>
-      </c>
+      <c r="U68" t="s"/>
       <c r="V68" t="n">
         <v>0</v>
       </c>
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>562</v>
+        <v>507</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>56420</v>
       </c>
-      <c r="B69" t="n">
-        <v>125355</v>
-      </c>
-      <c r="C69" t="s">
-        <v>563</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>564</v>
+        <v>509</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I69" t="s">
-        <v>565</v>
+        <v>510</v>
       </c>
       <c r="J69" t="s">
-        <v>566</v>
+        <v>511</v>
       </c>
       <c r="K69" t="s">
-        <v>567</v>
+        <v>512</v>
       </c>
       <c r="L69" t="s">
-        <v>568</v>
+        <v>513</v>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
-      </c>
-      <c r="N69" t="s">
-        <v>569</v>
-      </c>
-      <c r="O69" t="s">
-        <v>74</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
       <c r="P69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -6906,7 +6578,409 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>570</v>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>56420</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>515</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>516</v>
+      </c>
+      <c r="J70" t="s">
+        <v>517</v>
+      </c>
+      <c r="K70" t="s">
+        <v>518</v>
+      </c>
+      <c r="L70" t="s">
+        <v>519</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>520</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>56420</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>522</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>523</v>
+      </c>
+      <c r="J71" t="s">
+        <v>517</v>
+      </c>
+      <c r="K71" t="s">
+        <v>524</v>
+      </c>
+      <c r="L71" t="s">
+        <v>525</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>526</v>
+      </c>
+      <c r="O71" t="s">
+        <v>217</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>56420</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>527</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>528</v>
+      </c>
+      <c r="J72" t="s">
+        <v>529</v>
+      </c>
+      <c r="K72" t="s">
+        <v>530</v>
+      </c>
+      <c r="L72" t="s">
+        <v>531</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>520</v>
+      </c>
+      <c r="O72" t="s">
+        <v>79</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>56420</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>533</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>534</v>
+      </c>
+      <c r="J73" t="s">
+        <v>535</v>
+      </c>
+      <c r="K73" t="s">
+        <v>536</v>
+      </c>
+      <c r="L73" t="s">
+        <v>537</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>538</v>
+      </c>
+      <c r="O73" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>56420</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>540</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>541</v>
+      </c>
+      <c r="J74" t="s">
+        <v>542</v>
+      </c>
+      <c r="K74" t="s">
+        <v>543</v>
+      </c>
+      <c r="L74" t="s">
+        <v>544</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>508</v>
+      </c>
+      <c r="O74" t="s">
+        <v>79</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>56420</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>546</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>547</v>
+      </c>
+      <c r="J75" t="s">
+        <v>548</v>
+      </c>
+      <c r="K75" t="s">
+        <v>549</v>
+      </c>
+      <c r="L75" t="s">
+        <v>550</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>551</v>
+      </c>
+      <c r="O75" t="s">
+        <v>79</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>
